--- a/capiq_data/in_process_data/IQ285467.xlsx
+++ b/capiq_data/in_process_data/IQ285467.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8D38E2-6AD8-4F02-8A0B-1E153C5BCF1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5EDBB1-AF1F-4036-8EF0-E2EEE061A6A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ed29105c-63c3-411c-b849-064eb0e82d44"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"c9841410-f060-41cd-9881-c8970f343877"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>1169.5999999999999</v>
+        <v>767.3</v>
       </c>
       <c r="D2">
-        <v>6187</v>
+        <v>2977.7</v>
       </c>
       <c r="E2">
-        <v>3493.8</v>
+        <v>1630.7</v>
       </c>
       <c r="F2">
-        <v>4954.8</v>
+        <v>2412.5</v>
       </c>
       <c r="G2">
-        <v>14840</v>
+        <v>7943</v>
       </c>
       <c r="H2">
-        <v>31001.4</v>
+        <v>14690.8</v>
       </c>
       <c r="I2">
-        <v>1072.2</v>
+        <v>661.9</v>
       </c>
       <c r="J2">
-        <v>6770.5</v>
+        <v>2633.7</v>
       </c>
       <c r="K2">
-        <v>137.80000000000001</v>
+        <v>21.4</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>6926.9</v>
+        <v>4960.7</v>
       </c>
       <c r="O2">
-        <v>18588.599999999999</v>
+        <v>8643.9</v>
       </c>
       <c r="P2">
-        <v>6926.5</v>
+        <v>2818</v>
       </c>
       <c r="Q2">
-        <v>84.4</v>
+        <v>998.7</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>38350</v>
+        <v>35700</v>
       </c>
       <c r="T2">
-        <v>12412.8</v>
+        <v>6046.9</v>
       </c>
       <c r="U2">
-        <v>5993.2</v>
+        <v>4114.8999999999996</v>
       </c>
       <c r="V2">
-        <v>2228.1</v>
+        <v>1079.9000000000001</v>
       </c>
       <c r="W2">
-        <v>-544.1</v>
+        <v>-281</v>
       </c>
       <c r="X2">
-        <v>-549.6</v>
+        <v>-539.5</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-894.6</v>
+        <v>700.5</v>
       </c>
       <c r="AA2">
-        <v>1169.5999999999999</v>
+        <v>767.3</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>1055.9000000000001</v>
+        <v>806.8</v>
       </c>
       <c r="D3">
-        <v>5839.2</v>
+        <v>2805.7</v>
       </c>
       <c r="E3">
-        <v>3694.3</v>
+        <v>1471.3</v>
       </c>
       <c r="F3">
-        <v>4659.1000000000004</v>
+        <v>2283.4</v>
       </c>
       <c r="G3">
-        <v>15354.3</v>
+        <v>6868.1</v>
       </c>
       <c r="H3">
-        <v>31695.3</v>
+        <v>14752.4</v>
       </c>
       <c r="I3">
-        <v>1183.2</v>
+        <v>495.4</v>
       </c>
       <c r="J3">
-        <v>5132.3999999999996</v>
+        <v>2656.5</v>
       </c>
       <c r="K3">
-        <v>1539.9</v>
+        <v>432.5</v>
       </c>
       <c r="L3">
-        <v>-116.2</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-54.6</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>7651.8</v>
+        <v>4469.2</v>
       </c>
       <c r="O3">
-        <v>17761.099999999999</v>
+        <v>8158.8</v>
       </c>
       <c r="P3">
-        <v>6672.3</v>
+        <v>3089</v>
       </c>
       <c r="Q3">
-        <v>513.20000000000005</v>
+        <v>-883.6</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>13934.2</v>
+        <v>6593.6</v>
       </c>
       <c r="U3">
-        <v>6506.4</v>
+        <v>3231.3</v>
       </c>
       <c r="V3">
-        <v>1176.0999999999999</v>
+        <v>527.6</v>
       </c>
       <c r="W3">
-        <v>-543.20000000000005</v>
+        <v>-302</v>
       </c>
       <c r="X3">
-        <v>-713.8</v>
+        <v>-291.39999999999998</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>512.6</v>
+        <v>-893.1</v>
       </c>
       <c r="AA3">
-        <v>1055.9000000000001</v>
+        <v>806.8</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>1197.3</v>
+        <v>827.7</v>
       </c>
       <c r="D4">
-        <v>6252.8</v>
+        <v>3033.5</v>
       </c>
       <c r="E4">
-        <v>3833.6</v>
+        <v>1521.8</v>
       </c>
       <c r="F4">
-        <v>5024.8</v>
+        <v>2511.3000000000002</v>
       </c>
       <c r="G4">
-        <v>14950.3</v>
+        <v>6864.5</v>
       </c>
       <c r="H4">
-        <v>32779.300000000003</v>
+        <v>15633.5</v>
       </c>
       <c r="I4">
-        <v>1187.5999999999999</v>
+        <v>477.5</v>
       </c>
       <c r="J4">
-        <v>5200.1000000000004</v>
+        <v>2898.4</v>
       </c>
       <c r="K4">
-        <v>1528.5</v>
+        <v>430</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>8620.5</v>
+        <v>4952.8999999999996</v>
       </c>
       <c r="O4">
-        <v>18502.3</v>
+        <v>8870.1</v>
       </c>
       <c r="P4">
-        <v>6728.6</v>
+        <v>3328.4</v>
       </c>
       <c r="Q4">
-        <v>-392.9</v>
+        <v>-259.5</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>14277</v>
+        <v>6763.4</v>
       </c>
       <c r="U4">
-        <v>6113.5</v>
+        <v>2971.8</v>
       </c>
       <c r="V4">
-        <v>2040.3</v>
+        <v>1020</v>
       </c>
       <c r="W4">
-        <v>-552.1</v>
+        <v>-301.3</v>
       </c>
       <c r="X4">
-        <v>-564.29999999999995</v>
+        <v>-73.900000000000006</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-1194.3</v>
+        <v>-954.5</v>
       </c>
       <c r="AA4">
-        <v>1197.3</v>
+        <v>827.7</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>1236.3</v>
+        <v>570.1</v>
       </c>
       <c r="D5">
-        <v>6147.9</v>
+        <v>2874.4</v>
       </c>
       <c r="E5">
-        <v>3533.2</v>
+        <v>1402.6</v>
       </c>
       <c r="F5">
-        <v>4809.8</v>
+        <v>2325.4</v>
       </c>
       <c r="G5">
-        <v>14572.7</v>
+        <v>6976.9</v>
       </c>
       <c r="H5">
-        <v>33042.199999999997</v>
+        <v>16397.400000000001</v>
       </c>
       <c r="I5">
-        <v>1154.3</v>
+        <v>483.4</v>
       </c>
       <c r="J5">
-        <v>5451.3</v>
+        <v>3153.9</v>
       </c>
       <c r="K5">
-        <v>1628.7</v>
+        <v>438.4</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>8219.2999999999993</v>
+        <v>4783.2</v>
       </c>
       <c r="O5">
-        <v>17984.3</v>
+        <v>9030.2999999999993</v>
       </c>
       <c r="P5">
-        <v>7080</v>
+        <v>3592.3</v>
       </c>
       <c r="Q5">
-        <v>484.2</v>
+        <v>-325.5</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>15057.9</v>
+        <v>7367.1</v>
       </c>
       <c r="U5">
-        <v>6597.7</v>
+        <v>2646.3</v>
       </c>
       <c r="V5">
-        <v>2073.4</v>
+        <v>1033.4000000000001</v>
       </c>
       <c r="W5">
-        <v>-540.9</v>
+        <v>-302.10000000000002</v>
       </c>
       <c r="X5">
-        <v>-440.9</v>
+        <v>-179.2</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-350</v>
+        <v>-865.7</v>
       </c>
       <c r="AA5">
-        <v>1236.3</v>
+        <v>570.1</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>858.2</v>
+        <v>575.4</v>
       </c>
       <c r="D6">
-        <v>6046.6</v>
+        <v>2828.9</v>
       </c>
       <c r="E6">
-        <v>3597.7</v>
+        <v>1406.2</v>
       </c>
       <c r="F6">
-        <v>4724.8999999999996</v>
+        <v>2262.1999999999998</v>
       </c>
       <c r="G6">
-        <v>14248.2</v>
+        <v>6938.9</v>
       </c>
       <c r="H6">
-        <v>33659.800000000003</v>
+        <v>16434.099999999999</v>
       </c>
       <c r="I6">
-        <v>1125.2</v>
+        <v>624.1</v>
       </c>
       <c r="J6">
-        <v>5464.7</v>
+        <v>3132.1</v>
       </c>
       <c r="K6">
-        <v>5.5</v>
+        <v>274.10000000000002</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>8930.9</v>
+        <v>5203</v>
       </c>
       <c r="O6">
-        <v>20124.2</v>
+        <v>9330.1</v>
       </c>
       <c r="P6">
-        <v>6987</v>
+        <v>3418.4</v>
       </c>
       <c r="Q6">
-        <v>-675.2</v>
+        <v>56</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>38080</v>
+        <v>41100</v>
       </c>
       <c r="T6">
-        <v>13535.6</v>
+        <v>7104</v>
       </c>
       <c r="U6">
-        <v>5922.5</v>
+        <v>2702.3</v>
       </c>
       <c r="V6">
-        <v>1944.7</v>
+        <v>1080.5999999999999</v>
       </c>
       <c r="W6">
-        <v>-543.9</v>
+        <v>-301.8</v>
       </c>
       <c r="X6">
-        <v>-650.9</v>
+        <v>-504.2</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-1540.1</v>
+        <v>-29.4</v>
       </c>
       <c r="AA6">
-        <v>858.2</v>
+        <v>575.4</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>1011.1</v>
+        <v>629.20000000000005</v>
       </c>
       <c r="D7">
-        <v>5602</v>
+        <v>2561.1</v>
       </c>
       <c r="E7">
-        <v>3402.1</v>
+        <v>1499.3</v>
       </c>
       <c r="F7">
-        <v>4404.1000000000004</v>
+        <v>2031</v>
       </c>
       <c r="G7">
-        <v>12602.6</v>
+        <v>7424.1</v>
       </c>
       <c r="H7">
-        <v>32238.2</v>
+        <v>17059</v>
       </c>
       <c r="I7">
-        <v>1246.3</v>
+        <v>510.4</v>
       </c>
       <c r="J7">
-        <v>5403.2</v>
+        <v>3383.1</v>
       </c>
       <c r="K7">
-        <v>10.6</v>
+        <v>472.4</v>
       </c>
       <c r="L7">
-        <v>-5.3</v>
+        <v>-12.8</v>
       </c>
       <c r="M7">
-        <v>-1507.1</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>6553.7</v>
+        <v>4833</v>
       </c>
       <c r="O7">
-        <v>17415.599999999999</v>
+        <v>9358.6</v>
       </c>
       <c r="P7">
-        <v>5413.8</v>
+        <v>3855.5</v>
       </c>
       <c r="Q7">
-        <v>-1800.3</v>
+        <v>178.6</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>14822.6</v>
+        <v>7700.4</v>
       </c>
       <c r="U7">
-        <v>4122.2</v>
+        <v>2880.9</v>
       </c>
       <c r="V7">
-        <v>852.5</v>
+        <v>238.2</v>
       </c>
       <c r="W7">
-        <v>-544.6</v>
+        <v>-334</v>
       </c>
       <c r="X7">
-        <v>-2057</v>
+        <v>123.5</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-275.3</v>
+        <v>74.5</v>
       </c>
       <c r="AA7">
-        <v>1011.1</v>
+        <v>629.20000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>923.6</v>
+        <v>658.5</v>
       </c>
       <c r="D8">
-        <v>5600.7</v>
+        <v>2775.2</v>
       </c>
       <c r="E8">
-        <v>3181.7</v>
+        <v>1655.2</v>
       </c>
       <c r="F8">
-        <v>4454</v>
+        <v>2250.3000000000002</v>
       </c>
       <c r="G8">
-        <v>12307.3</v>
+        <v>8117.9</v>
       </c>
       <c r="H8">
-        <v>31812.6</v>
+        <v>17543.900000000001</v>
       </c>
       <c r="I8">
-        <v>1201.5999999999999</v>
+        <v>555.9</v>
       </c>
       <c r="J8">
-        <v>5500.2</v>
+        <v>3499.1</v>
       </c>
       <c r="K8">
-        <v>9.1</v>
+        <v>479.4</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>6609.7</v>
+        <v>5085.7</v>
       </c>
       <c r="O8">
-        <v>17504.7</v>
+        <v>9797</v>
       </c>
       <c r="P8">
-        <v>5509.3</v>
+        <v>3978.5</v>
       </c>
       <c r="Q8">
-        <v>223.6</v>
+        <v>170.3</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>14307.9</v>
+        <v>7746.9</v>
       </c>
       <c r="U8">
-        <v>4345.8</v>
+        <v>3051.2</v>
       </c>
       <c r="V8">
-        <v>1306</v>
+        <v>568.29999999999995</v>
       </c>
       <c r="W8">
-        <v>-550.4</v>
+        <v>-333.5</v>
       </c>
       <c r="X8">
-        <v>-552.70000000000005</v>
+        <v>-426.7</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-141.30000000000001</v>
+        <v>188.7</v>
       </c>
       <c r="AA8">
-        <v>923.6</v>
+        <v>658.5</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>1326.6</v>
+        <v>683.9</v>
       </c>
       <c r="D9">
-        <v>5443.3</v>
+        <v>2785.6</v>
       </c>
       <c r="E9">
-        <v>3268.2</v>
+        <v>1525.4</v>
       </c>
       <c r="F9">
-        <v>4239.7</v>
+        <v>2231.9</v>
       </c>
       <c r="G9">
-        <v>14038.9</v>
+        <v>8313.2000000000007</v>
       </c>
       <c r="H9">
-        <v>34321</v>
+        <v>18920.099999999999</v>
       </c>
       <c r="I9">
-        <v>1328.7</v>
+        <v>499.4</v>
       </c>
       <c r="J9">
-        <v>5510.9</v>
+        <v>4363.1000000000004</v>
       </c>
       <c r="K9">
-        <v>9.1</v>
+        <v>884.3</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>6960.7</v>
+        <v>5017.5</v>
       </c>
       <c r="O9">
-        <v>18264.099999999999</v>
+        <v>10658.6</v>
       </c>
       <c r="P9">
-        <v>5520</v>
+        <v>5247.4</v>
       </c>
       <c r="Q9">
-        <v>973.4</v>
+        <v>-265</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>16056.9</v>
+        <v>8261.5</v>
       </c>
       <c r="U9">
-        <v>5319.2</v>
+        <v>2786.2</v>
       </c>
       <c r="V9">
-        <v>1544.3</v>
+        <v>569.20000000000005</v>
       </c>
       <c r="W9">
-        <v>-544.20000000000005</v>
+        <v>-334.5</v>
       </c>
       <c r="X9">
-        <v>-544.70000000000005</v>
+        <v>701.9</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-1275.5</v>
+        <v>-1087.3</v>
       </c>
       <c r="AA9">
-        <v>1326.6</v>
+        <v>683.9</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>827.3</v>
+        <v>736.3</v>
       </c>
       <c r="D10">
-        <v>5957.4</v>
+        <v>2955.6</v>
       </c>
       <c r="E10">
-        <v>3336.3</v>
+        <v>1670.3</v>
       </c>
       <c r="F10">
-        <v>4709.1000000000004</v>
+        <v>2387.8000000000002</v>
       </c>
       <c r="G10">
-        <v>13038.7</v>
+        <v>7804.1</v>
       </c>
       <c r="H10">
-        <v>34398.9</v>
+        <v>19042</v>
       </c>
       <c r="I10">
-        <v>1188.3</v>
+        <v>676.9</v>
       </c>
       <c r="J10">
-        <v>5519.4</v>
+        <v>4358.2</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>8389.5</v>
+        <v>5063.5</v>
       </c>
       <c r="O10">
-        <v>19625</v>
+        <v>10768.4</v>
       </c>
       <c r="P10">
-        <v>5531.3</v>
+        <v>4903.6000000000004</v>
       </c>
       <c r="Q10">
-        <v>-1300.4000000000001</v>
+        <v>-840.3</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>38350</v>
+        <v>43700</v>
       </c>
       <c r="T10">
-        <v>14773.9</v>
+        <v>8273.6</v>
       </c>
       <c r="U10">
-        <v>4018.8</v>
+        <v>1945.9</v>
       </c>
       <c r="V10">
-        <v>1602</v>
+        <v>695</v>
       </c>
       <c r="W10">
-        <v>-548.20000000000005</v>
+        <v>-333.8</v>
       </c>
       <c r="X10">
-        <v>-1265.2</v>
+        <v>-820.7</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-1195.7</v>
+        <v>-240.1</v>
       </c>
       <c r="AA10">
-        <v>827.3</v>
+        <v>736.3</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>1548</v>
+        <v>407</v>
       </c>
       <c r="D11">
-        <v>5602</v>
+        <v>2889.4</v>
       </c>
       <c r="E11">
-        <v>3439.7</v>
+        <v>1655.7</v>
       </c>
       <c r="F11">
-        <v>4443.7</v>
+        <v>2268.1</v>
       </c>
       <c r="G11">
-        <v>12326.1</v>
+        <v>8159.8</v>
       </c>
       <c r="H11">
-        <v>32300.1</v>
+        <v>19641.599999999999</v>
       </c>
       <c r="I11">
-        <v>974.4</v>
+        <v>602</v>
       </c>
       <c r="J11">
-        <v>4431.6000000000004</v>
+        <v>4786.7</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>168.1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-228.7</v>
       </c>
       <c r="M11">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>7593.6</v>
+        <v>4576.7</v>
       </c>
       <c r="O11">
-        <v>17344.5</v>
+        <v>10914</v>
       </c>
       <c r="P11">
-        <v>5459.6</v>
+        <v>4954.8</v>
       </c>
       <c r="Q11">
-        <v>-82.2</v>
+        <v>258.2</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>14955.6</v>
+        <v>8727.6</v>
       </c>
       <c r="U11">
-        <v>3936.6</v>
+        <v>2204.1</v>
       </c>
       <c r="V11">
-        <v>379.4</v>
+        <v>589</v>
       </c>
       <c r="W11">
-        <v>-531.1</v>
+        <v>-360.5</v>
       </c>
       <c r="X11">
-        <v>-1730.1</v>
+        <v>-343.1</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1531.4</v>
+        <v>337</v>
       </c>
       <c r="AA11">
-        <v>1548</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>1206.2</v>
+        <v>692.2</v>
       </c>
       <c r="D12">
-        <v>5929.7</v>
+        <v>3088.2</v>
       </c>
       <c r="E12">
-        <v>3579.1</v>
+        <v>1684.4</v>
       </c>
       <c r="F12">
-        <v>4764.5</v>
+        <v>2445.1999999999998</v>
       </c>
       <c r="G12">
-        <v>12639.3</v>
+        <v>7762.9</v>
       </c>
       <c r="H12">
-        <v>33226</v>
+        <v>20050.5</v>
       </c>
       <c r="I12">
-        <v>1141</v>
+        <v>580.1</v>
       </c>
       <c r="J12">
-        <v>4290.8</v>
+        <v>4861.8999999999996</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>160.1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8408.5</v>
+        <v>4967.6000000000004</v>
       </c>
       <c r="O12">
-        <v>17989.599999999999</v>
+        <v>11365</v>
       </c>
       <c r="P12">
-        <v>5314</v>
+        <v>5022</v>
       </c>
       <c r="Q12">
-        <v>-150.1</v>
+        <v>-166.8</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>15236.4</v>
+        <v>8685.5</v>
       </c>
       <c r="U12">
-        <v>3786.5</v>
+        <v>2037.3</v>
       </c>
       <c r="V12">
-        <v>1637.2</v>
+        <v>828</v>
       </c>
       <c r="W12">
-        <v>-533</v>
+        <v>-358.6</v>
       </c>
       <c r="X12">
-        <v>-533.79999999999995</v>
+        <v>-556</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-1078</v>
+        <v>-118.1</v>
       </c>
       <c r="AA12">
-        <v>1206.2</v>
+        <v>692.2</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>1203.0999999999999</v>
+        <v>714.4</v>
       </c>
       <c r="D13">
-        <v>5772.6</v>
+        <v>3139.4</v>
       </c>
       <c r="E13">
-        <v>3445</v>
+        <v>1666.2</v>
       </c>
       <c r="F13">
-        <v>4574.5</v>
+        <v>2460.1</v>
       </c>
       <c r="G13">
-        <v>13202.2</v>
+        <v>8583.4</v>
       </c>
       <c r="H13">
-        <v>33965.599999999999</v>
+        <v>20800.8</v>
       </c>
       <c r="I13">
-        <v>1247.4000000000001</v>
+        <v>588.29999999999995</v>
       </c>
       <c r="J13">
-        <v>4263.8</v>
+        <v>4998</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>202.5</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8076.1</v>
+        <v>4687.6000000000004</v>
       </c>
       <c r="O13">
-        <v>17069.5</v>
+        <v>11315.6</v>
       </c>
       <c r="P13">
-        <v>5287.2</v>
+        <v>5200.5</v>
       </c>
       <c r="Q13">
-        <v>582.4</v>
+        <v>878.8</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>16896.099999999999</v>
+        <v>9485.2000000000007</v>
       </c>
       <c r="U13">
-        <v>4368.8999999999996</v>
+        <v>2916.1</v>
       </c>
       <c r="V13">
-        <v>1991.6</v>
+        <v>1063.0999999999999</v>
       </c>
       <c r="W13">
-        <v>-527.70000000000005</v>
+        <v>-363</v>
       </c>
       <c r="X13">
-        <v>-529</v>
+        <v>-69.2</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-610.5</v>
+        <v>321.3</v>
       </c>
       <c r="AA13">
-        <v>1203.0999999999999</v>
+        <v>714.4</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>727.5</v>
+        <v>747.2</v>
       </c>
       <c r="D14">
-        <v>5808.8</v>
+        <v>3465.5</v>
       </c>
       <c r="E14">
-        <v>3434.4</v>
+        <v>1864.9</v>
       </c>
       <c r="F14">
-        <v>4422.3</v>
+        <v>2734</v>
       </c>
       <c r="G14">
-        <v>13104.7</v>
+        <v>8768.9</v>
       </c>
       <c r="H14">
-        <v>35248.699999999997</v>
+        <v>21688.3</v>
       </c>
       <c r="I14">
-        <v>1119.3</v>
+        <v>875.9</v>
       </c>
       <c r="J14">
-        <v>4201.2</v>
+        <v>4687.8</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8916.6</v>
+        <v>5560.8</v>
       </c>
       <c r="O14">
-        <v>17608</v>
+        <v>11923.5</v>
       </c>
       <c r="P14">
-        <v>5213.8</v>
+        <v>4884.3</v>
       </c>
       <c r="Q14">
-        <v>-538.70000000000005</v>
+        <v>-159.80000000000001</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>37925</v>
+        <v>46100</v>
       </c>
       <c r="T14">
-        <v>17640.7</v>
+        <v>9764.7999999999993</v>
       </c>
       <c r="U14">
-        <v>3830.2</v>
+        <v>2756.3</v>
       </c>
       <c r="V14">
-        <v>1726.8</v>
+        <v>1166.5999999999999</v>
       </c>
       <c r="W14">
-        <v>-528.9</v>
+        <v>-360.9</v>
       </c>
       <c r="X14">
-        <v>-1036.4000000000001</v>
+        <v>-610</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-860.7</v>
+        <v>-9.1</v>
       </c>
       <c r="AA14">
-        <v>727.5</v>
+        <v>747.2</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>727.9</v>
+        <v>400.4</v>
       </c>
       <c r="D15">
-        <v>4683.1000000000004</v>
+        <v>3376.9</v>
       </c>
       <c r="E15">
-        <v>3002.9</v>
+        <v>1911.5</v>
       </c>
       <c r="F15">
-        <v>3460.4</v>
+        <v>2625.2</v>
       </c>
       <c r="G15">
-        <v>13039.3</v>
+        <v>8798.9</v>
       </c>
       <c r="H15">
-        <v>34756.9</v>
+        <v>22402.400000000001</v>
       </c>
       <c r="I15">
-        <v>1149.9000000000001</v>
+        <v>800.5</v>
       </c>
       <c r="J15">
-        <v>5256.5</v>
+        <v>4503.6000000000004</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>807.1</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-1002</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>6631.7</v>
+        <v>5551.1</v>
       </c>
       <c r="O15">
-        <v>16408.2</v>
+        <v>11843.9</v>
       </c>
       <c r="P15">
-        <v>5265.6</v>
+        <v>5310.7</v>
       </c>
       <c r="Q15">
-        <v>57.8</v>
+        <v>-345.9</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>18348.7</v>
+        <v>10558.5</v>
       </c>
       <c r="U15">
-        <v>3888</v>
+        <v>2410.4</v>
       </c>
       <c r="V15">
-        <v>272.3</v>
+        <v>577</v>
       </c>
       <c r="W15">
-        <v>-524.1</v>
+        <v>-384.3</v>
       </c>
       <c r="X15">
-        <v>-595.1</v>
+        <v>18.5</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>627.29999999999995</v>
+        <v>-412.6</v>
       </c>
       <c r="AA15">
-        <v>727.9</v>
+        <v>400.4</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>733.5</v>
+        <v>656.9</v>
       </c>
       <c r="D16">
-        <v>4935.6000000000004</v>
+        <v>3556.3</v>
       </c>
       <c r="E16">
-        <v>3187.9</v>
+        <v>1973.6</v>
       </c>
       <c r="F16">
-        <v>3745.9</v>
+        <v>2759.9</v>
       </c>
       <c r="G16">
-        <v>13156.7</v>
+        <v>8788.2000000000007</v>
       </c>
       <c r="H16">
-        <v>35018.400000000001</v>
+        <v>22771.8</v>
       </c>
       <c r="I16">
-        <v>1124.5999999999999</v>
+        <v>788.8</v>
       </c>
       <c r="J16">
-        <v>5301.3</v>
+        <v>3532</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1597.7</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>7417.4</v>
+        <v>6723.7</v>
       </c>
       <c r="O16">
-        <v>17023.599999999999</v>
+        <v>12272.6</v>
       </c>
       <c r="P16">
-        <v>5326.2</v>
+        <v>5129.7</v>
       </c>
       <c r="Q16">
-        <v>-122.3</v>
+        <v>-13.7</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>17994.8</v>
+        <v>10499.2</v>
       </c>
       <c r="U16">
-        <v>3765.7</v>
+        <v>2396.6999999999998</v>
       </c>
       <c r="V16">
-        <v>1053.9000000000001</v>
+        <v>944.2</v>
       </c>
       <c r="W16">
-        <v>-526.9</v>
+        <v>-384.9</v>
       </c>
       <c r="X16">
-        <v>-702.5</v>
+        <v>-392.5</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>403.3</v>
+        <v>-3.5</v>
       </c>
       <c r="AA16">
-        <v>733.5</v>
+        <v>656.9</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>500.6</v>
+        <v>755.2</v>
       </c>
       <c r="D17">
-        <v>4875.6000000000004</v>
+        <v>3280.4</v>
       </c>
       <c r="E17">
-        <v>3053.5</v>
+        <v>1913.1</v>
       </c>
       <c r="F17">
-        <v>3608.6</v>
+        <v>2470.3000000000002</v>
       </c>
       <c r="G17">
-        <v>12110.5</v>
+        <v>9585.7000000000007</v>
       </c>
       <c r="H17">
-        <v>34648.800000000003</v>
+        <v>24185.9</v>
       </c>
       <c r="I17">
-        <v>1023.3</v>
+        <v>680.4</v>
       </c>
       <c r="J17">
-        <v>5318.5</v>
+        <v>4510.5</v>
       </c>
       <c r="K17">
-        <v>300</v>
+        <v>1668.6</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>7574.6</v>
+        <v>6541.9</v>
       </c>
       <c r="O17">
-        <v>16966.3</v>
+        <v>12875.9</v>
       </c>
       <c r="P17">
-        <v>5668.2</v>
+        <v>6179.1</v>
       </c>
       <c r="Q17">
-        <v>-599.9</v>
+        <v>180.7</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>17682.5</v>
+        <v>11310</v>
       </c>
       <c r="U17">
-        <v>3165.8</v>
+        <v>2577.4</v>
       </c>
       <c r="V17">
-        <v>1691.3</v>
+        <v>799.9</v>
       </c>
       <c r="W17">
-        <v>-525</v>
+        <v>-385.1</v>
       </c>
       <c r="X17">
-        <v>-405.9</v>
+        <v>600</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-1052</v>
+        <v>-600.9</v>
       </c>
       <c r="AA17">
-        <v>500.6</v>
+        <v>755.2</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>428.5</v>
+        <v>-2.4</v>
       </c>
       <c r="D18">
-        <v>5121.3</v>
+        <v>3644.3</v>
       </c>
       <c r="E18">
-        <v>3234.6</v>
+        <v>2058.6999999999998</v>
       </c>
       <c r="F18">
-        <v>3868.2</v>
+        <v>2778.6</v>
       </c>
       <c r="G18">
-        <v>11928.3</v>
+        <v>12835.8</v>
       </c>
       <c r="H18">
-        <v>36307.599999999999</v>
+        <v>24867</v>
       </c>
       <c r="I18">
-        <v>1128.0999999999999</v>
+        <v>648.6</v>
       </c>
       <c r="J18">
-        <v>5333.5</v>
+        <v>4491.8999999999996</v>
       </c>
       <c r="K18">
-        <v>2680.6</v>
+        <v>1654</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9741</v>
+        <v>7593.7</v>
       </c>
       <c r="O18">
-        <v>20919.5</v>
+        <v>13947.1</v>
       </c>
       <c r="P18">
-        <v>8171.7</v>
+        <v>6512.5</v>
       </c>
       <c r="Q18">
-        <v>705.8</v>
+        <v>2787.9</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>39135</v>
+        <v>44500</v>
       </c>
       <c r="T18">
-        <v>15388.1</v>
+        <v>10919.9</v>
       </c>
       <c r="U18">
-        <v>3871.6</v>
+        <v>5365.3</v>
       </c>
       <c r="V18">
-        <v>1349.6</v>
+        <v>548.4</v>
       </c>
       <c r="W18">
-        <v>-525.20000000000005</v>
+        <v>-385.5</v>
       </c>
       <c r="X18">
-        <v>1628.4</v>
+        <v>-22.3</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>3644.4</v>
+        <v>2779.6</v>
       </c>
       <c r="AA18">
-        <v>428.5</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>529.5</v>
+        <v>736.6</v>
       </c>
       <c r="D19">
-        <v>4644.7</v>
+        <v>3497.4</v>
       </c>
       <c r="E19">
-        <v>3142.5</v>
+        <v>2112.4</v>
       </c>
       <c r="F19">
-        <v>3515.5</v>
+        <v>2638.4</v>
       </c>
       <c r="G19">
-        <v>11742.7</v>
+        <v>11257.3</v>
       </c>
       <c r="H19">
-        <v>35653.9</v>
+        <v>23239.7</v>
       </c>
       <c r="I19">
-        <v>1179.5999999999999</v>
+        <v>670.5</v>
       </c>
       <c r="J19">
-        <v>7415.3</v>
+        <v>4357</v>
       </c>
       <c r="K19">
-        <v>590</v>
+        <v>233.1</v>
       </c>
       <c r="L19">
-        <v>-2088.6</v>
+        <v>-1788.2</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-97.1</v>
       </c>
       <c r="N19">
-        <v>8342.9</v>
+        <v>5381.7</v>
       </c>
       <c r="O19">
-        <v>20707.400000000001</v>
+        <v>11641.9</v>
       </c>
       <c r="P19">
-        <v>8220.7000000000007</v>
+        <v>4590.1000000000004</v>
       </c>
       <c r="Q19">
-        <v>-806.8</v>
+        <v>242.4</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>14946.5</v>
+        <v>11597.8</v>
       </c>
       <c r="U19">
-        <v>3064.8</v>
+        <v>5607.7</v>
       </c>
       <c r="V19">
-        <v>-84.8</v>
+        <v>804.8</v>
       </c>
       <c r="W19">
-        <v>-527.9</v>
+        <v>-413.2</v>
       </c>
       <c r="X19">
-        <v>-701.2</v>
+        <v>-2285.1</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>13.2</v>
+        <v>2133.3000000000002</v>
       </c>
       <c r="AA19">
-        <v>529.5</v>
+        <v>736.6</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>600.79999999999995</v>
+        <v>-252</v>
       </c>
       <c r="D20">
-        <v>4978.7</v>
+        <v>3667.7</v>
       </c>
       <c r="E20">
-        <v>3348.8</v>
+        <v>2085.6999999999998</v>
       </c>
       <c r="F20">
-        <v>3828.7</v>
+        <v>2796.4</v>
       </c>
       <c r="G20">
-        <v>12346</v>
+        <v>10953.8</v>
       </c>
       <c r="H20">
-        <v>36036.6</v>
+        <v>23419.599999999999</v>
       </c>
       <c r="I20">
-        <v>1153</v>
+        <v>608.5</v>
       </c>
       <c r="J20">
-        <v>7990.4</v>
+        <v>4445.5</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>230.6</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>8232</v>
+        <v>6462.4</v>
       </c>
       <c r="O20">
-        <v>21331.200000000001</v>
+        <v>13151</v>
       </c>
       <c r="P20">
-        <v>8001.2</v>
+        <v>4676.1000000000004</v>
       </c>
       <c r="Q20">
-        <v>250.7</v>
+        <v>-965.3</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>14705.4</v>
+        <v>10268.6</v>
       </c>
       <c r="U20">
-        <v>3315.5</v>
+        <v>4642.3999999999996</v>
       </c>
       <c r="V20">
-        <v>948.6</v>
+        <v>674.1</v>
       </c>
       <c r="W20">
-        <v>-539.79999999999995</v>
+        <v>-408</v>
       </c>
       <c r="X20">
-        <v>-943.2</v>
+        <v>-379.2</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>601.29999999999995</v>
+        <v>-742.8</v>
       </c>
       <c r="AA20">
-        <v>600.79999999999995</v>
+        <v>-252</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>799.7</v>
+        <v>794.4</v>
       </c>
       <c r="D21">
-        <v>4959.7</v>
+        <v>3601.1</v>
       </c>
       <c r="E21">
-        <v>3401.9</v>
+        <v>2058.9</v>
       </c>
       <c r="F21">
-        <v>3744</v>
+        <v>2755.4</v>
       </c>
       <c r="G21">
-        <v>12567</v>
+        <v>11946.9</v>
       </c>
       <c r="H21">
-        <v>36304.699999999997</v>
+        <v>24803.4</v>
       </c>
       <c r="I21">
-        <v>1179.3</v>
+        <v>611.29999999999995</v>
       </c>
       <c r="J21">
-        <v>8069.6</v>
+        <v>5881.1</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>629.1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8303.2999999999993</v>
+        <v>5091.5</v>
       </c>
       <c r="O21">
-        <v>21063.8</v>
+        <v>13420.1</v>
       </c>
       <c r="P21">
-        <v>8078.9</v>
+        <v>6510.2</v>
       </c>
       <c r="Q21">
-        <v>-76.7</v>
+        <v>327.3</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>15240.9</v>
+        <v>11383.3</v>
       </c>
       <c r="U21">
-        <v>3238.8</v>
+        <v>4969.7</v>
       </c>
       <c r="V21">
-        <v>1104.7</v>
+        <v>-379.6</v>
       </c>
       <c r="W21">
-        <v>-526.29999999999995</v>
+        <v>-424.5</v>
       </c>
       <c r="X21">
-        <v>-595.20000000000005</v>
+        <v>1536.4</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-194.5</v>
+        <v>-502.3</v>
       </c>
       <c r="AA21">
-        <v>799.7</v>
+        <v>794.4</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>478.4</v>
+        <v>700.6</v>
       </c>
       <c r="D22">
-        <v>5375.6</v>
+        <v>3879.1</v>
       </c>
       <c r="E22">
-        <v>3513</v>
+        <v>2313.3000000000002</v>
       </c>
       <c r="F22">
-        <v>3986.4</v>
+        <v>2980.9</v>
       </c>
       <c r="G22">
-        <v>12573.6</v>
+        <v>10795.8</v>
       </c>
       <c r="H22">
-        <v>35568.9</v>
+        <v>24580.799999999999</v>
       </c>
       <c r="I22">
-        <v>1338.2</v>
+        <v>781.3</v>
       </c>
       <c r="J22">
-        <v>7972.8</v>
+        <v>5763.5</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.4</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8229.6</v>
+        <v>5716.3</v>
       </c>
       <c r="O22">
-        <v>20978.6</v>
+        <v>13788.9</v>
       </c>
       <c r="P22">
-        <v>7978.9</v>
+        <v>6498.2</v>
       </c>
       <c r="Q22">
-        <v>427.6</v>
+        <v>-1963</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>41275</v>
+        <v>42600</v>
       </c>
       <c r="T22">
-        <v>14590.3</v>
+        <v>10791.9</v>
       </c>
       <c r="U22">
-        <v>3666.4</v>
+        <v>3006.7</v>
       </c>
       <c r="V22">
-        <v>996.1</v>
+        <v>814.3</v>
       </c>
       <c r="W22">
-        <v>-533.29999999999995</v>
+        <v>-409.2</v>
       </c>
       <c r="X22">
-        <v>-871.4</v>
+        <v>-752.6</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>741.5</v>
+        <v>-1463.5</v>
       </c>
       <c r="AA22">
-        <v>478.4</v>
+        <v>700.6</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>440.1</v>
+        <v>834.8</v>
       </c>
       <c r="D23">
-        <v>4865.1000000000004</v>
+        <v>3714.7</v>
       </c>
       <c r="E23">
-        <v>3622.6</v>
+        <v>2113.6</v>
       </c>
       <c r="F23">
-        <v>3542.1</v>
+        <v>2908.2</v>
       </c>
       <c r="G23">
-        <v>11714.6</v>
+        <v>10360.6</v>
       </c>
       <c r="H23">
-        <v>34691.800000000003</v>
+        <v>24146.9</v>
       </c>
       <c r="I23">
-        <v>1151.5999999999999</v>
+        <v>637.70000000000005</v>
       </c>
       <c r="J23">
-        <v>7478.9</v>
+        <v>5612.5</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="L23">
-        <v>-1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-97.7</v>
       </c>
       <c r="N23">
-        <v>7340.9</v>
+        <v>4526.2</v>
       </c>
       <c r="O23">
-        <v>19662.400000000001</v>
+        <v>12452.7</v>
       </c>
       <c r="P23">
-        <v>8127.2</v>
+        <v>6348.5</v>
       </c>
       <c r="Q23">
-        <v>-1358.8</v>
+        <v>-548.4</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>15029.4</v>
+        <v>11694.2</v>
       </c>
       <c r="U23">
-        <v>2307.6</v>
+        <v>2458.3000000000002</v>
       </c>
       <c r="V23">
-        <v>-219.1</v>
+        <v>254.5</v>
       </c>
       <c r="W23">
-        <v>-538.29999999999995</v>
+        <v>-433.5</v>
       </c>
       <c r="X23">
-        <v>-924.2</v>
+        <v>-640.29999999999995</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>45.4</v>
+        <v>-96.1</v>
       </c>
       <c r="AA23">
-        <v>440.1</v>
+        <v>834.8</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>747.7</v>
+        <v>822</v>
       </c>
       <c r="D24">
-        <v>5404.8</v>
+        <v>3866.9</v>
       </c>
       <c r="E24">
-        <v>3947.9</v>
+        <v>2101.8000000000002</v>
       </c>
       <c r="F24">
-        <v>3939.8</v>
+        <v>3006.3</v>
       </c>
       <c r="G24">
-        <v>12977.3</v>
+        <v>10588.6</v>
       </c>
       <c r="H24">
-        <v>36475.300000000003</v>
+        <v>24435.599999999999</v>
       </c>
       <c r="I24">
-        <v>1207.8</v>
+        <v>648.9</v>
       </c>
       <c r="J24">
-        <v>8685.5</v>
+        <v>5578</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>738.6</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>8401</v>
+        <v>4645.3</v>
       </c>
       <c r="O24">
-        <v>21819.1</v>
+        <v>12507.1</v>
       </c>
       <c r="P24">
-        <v>9331.2999999999993</v>
+        <v>6316.6</v>
       </c>
       <c r="Q24">
-        <v>930.4</v>
+        <v>211.4</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>14656.2</v>
+        <v>11928.5</v>
       </c>
       <c r="U24">
-        <v>3238</v>
+        <v>2669.7</v>
       </c>
       <c r="V24">
-        <v>1401.9</v>
+        <v>687.7</v>
       </c>
       <c r="W24">
-        <v>-541.20000000000005</v>
+        <v>-431.1</v>
       </c>
       <c r="X24">
-        <v>579.29999999999995</v>
+        <v>-427.5</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-735.2</v>
+        <v>103</v>
       </c>
       <c r="AA24">
-        <v>747.7</v>
+        <v>822</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>778</v>
+        <v>873.6</v>
       </c>
       <c r="D25">
-        <v>5191.7</v>
+        <v>3864.1</v>
       </c>
       <c r="E25">
-        <v>3848.5</v>
+        <v>2077.9</v>
       </c>
       <c r="F25">
-        <v>3790.8</v>
+        <v>3003.7</v>
       </c>
       <c r="G25">
-        <v>13385.9</v>
+        <v>9771.2000000000007</v>
       </c>
       <c r="H25">
-        <v>37590.300000000003</v>
+        <v>23913.4</v>
       </c>
       <c r="I25">
-        <v>1161.2</v>
+        <v>630.6</v>
       </c>
       <c r="J25">
-        <v>8707.2999999999993</v>
+        <v>4553.3</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>334.2</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>8272.7999999999993</v>
+        <v>3882.8</v>
       </c>
       <c r="O25">
-        <v>21974.5</v>
+        <v>10858.7</v>
       </c>
       <c r="P25">
-        <v>9348.7999999999993</v>
+        <v>4887.5</v>
       </c>
       <c r="Q25">
-        <v>251</v>
+        <v>-499.8</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>15615.8</v>
+        <v>13054.7</v>
       </c>
       <c r="U25">
-        <v>3489</v>
+        <v>2169.9</v>
       </c>
       <c r="V25">
-        <v>1661.7</v>
+        <v>1176</v>
       </c>
       <c r="W25">
-        <v>-537.9</v>
+        <v>-436.9</v>
       </c>
       <c r="X25">
-        <v>-600.1</v>
+        <v>-1906.1</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-523.9</v>
+        <v>489.9</v>
       </c>
       <c r="AA25">
-        <v>778</v>
+        <v>873.6</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>771.8</v>
+        <v>132.30000000000001</v>
       </c>
       <c r="D26">
-        <v>5760.5</v>
+        <v>4245.3</v>
       </c>
       <c r="E26">
-        <v>4029.4</v>
+        <v>2298.6</v>
       </c>
       <c r="F26">
-        <v>4294.5</v>
+        <v>3226.3</v>
       </c>
       <c r="G26">
-        <v>15101.4</v>
+        <v>9753.6</v>
       </c>
       <c r="H26">
-        <v>38805.9</v>
+        <v>22042.400000000001</v>
       </c>
       <c r="I26">
-        <v>1349.3</v>
+        <v>789.4</v>
       </c>
       <c r="J26">
-        <v>8368.2999999999993</v>
+        <v>3494.4</v>
       </c>
       <c r="K26">
-        <v>1299.3</v>
+        <v>8.6</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>10986.6</v>
+        <v>5254</v>
       </c>
       <c r="O26">
-        <v>24725.4</v>
+        <v>11222.2</v>
       </c>
       <c r="P26">
-        <v>10305.700000000001</v>
+        <v>3713.8</v>
       </c>
       <c r="Q26">
-        <v>1093.0999999999999</v>
+        <v>939.4</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>41975</v>
+        <v>41500</v>
       </c>
       <c r="T26">
-        <v>14080.5</v>
+        <v>10820.2</v>
       </c>
       <c r="U26">
-        <v>4582.1000000000004</v>
+        <v>3109.3</v>
       </c>
       <c r="V26">
-        <v>2006.5</v>
+        <v>1857.7</v>
       </c>
       <c r="W26">
-        <v>-541.1</v>
+        <v>-434.8</v>
       </c>
       <c r="X26">
-        <v>385.2</v>
+        <v>-1604.9</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-731.7</v>
+        <v>945.2</v>
       </c>
       <c r="AA26">
-        <v>771.8</v>
+        <v>132.30000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-110.8</v>
+        <v>508.7</v>
       </c>
       <c r="D27">
-        <v>5228.3</v>
+        <v>4226.1000000000004</v>
       </c>
       <c r="E27">
-        <v>4017.2</v>
+        <v>2253.8000000000002</v>
       </c>
       <c r="F27">
-        <v>3880.4</v>
+        <v>3303.6</v>
       </c>
       <c r="G27">
-        <v>12976.2</v>
+        <v>9246</v>
       </c>
       <c r="H27">
-        <v>37624.300000000003</v>
+        <v>23733.3</v>
       </c>
       <c r="I27">
-        <v>1220.0999999999999</v>
+        <v>606</v>
       </c>
       <c r="J27">
-        <v>7638.5</v>
+        <v>4624.2</v>
       </c>
       <c r="K27">
-        <v>1799.7</v>
+        <v>734</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-3.9</v>
       </c>
       <c r="M27">
-        <v>-630.20000000000005</v>
+        <v>-1097.2</v>
       </c>
       <c r="N27">
-        <v>10448</v>
+        <v>4152.3</v>
       </c>
       <c r="O27">
-        <v>23520.6</v>
+        <v>12199.4</v>
       </c>
       <c r="P27">
-        <v>10248.200000000001</v>
+        <v>5358.2</v>
       </c>
       <c r="Q27">
-        <v>-1965.2</v>
+        <v>-617.9</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>14103.7</v>
+        <v>11533.9</v>
       </c>
       <c r="U27">
-        <v>2616.9</v>
+        <v>2491.4</v>
       </c>
       <c r="V27">
-        <v>339.9</v>
+        <v>891.8</v>
       </c>
       <c r="W27">
-        <v>-547.4</v>
+        <v>-462.9</v>
       </c>
       <c r="X27">
-        <v>-875.7</v>
+        <v>943.6</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>461.1</v>
+        <v>41.5</v>
       </c>
       <c r="AA27">
-        <v>-110.8</v>
+        <v>508.7</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>1008</v>
+        <v>663.6</v>
       </c>
       <c r="D28">
-        <v>5824.3</v>
+        <v>4631</v>
       </c>
       <c r="E28">
-        <v>4349.8999999999996</v>
+        <v>2414.1999999999998</v>
       </c>
       <c r="F28">
-        <v>4252.6000000000004</v>
+        <v>3632.1</v>
       </c>
       <c r="G28">
-        <v>15746.5</v>
+        <v>9561.2999999999993</v>
       </c>
       <c r="H28">
-        <v>40946.5</v>
+        <v>24055.599999999999</v>
       </c>
       <c r="I28">
-        <v>1257.2</v>
+        <v>719.3</v>
       </c>
       <c r="J28">
-        <v>9881.4</v>
+        <v>4574</v>
       </c>
       <c r="K28">
-        <v>1425</v>
+        <v>464.2</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>11294.5</v>
+        <v>4545.2</v>
       </c>
       <c r="O28">
-        <v>26776.799999999999</v>
+        <v>12495.6</v>
       </c>
       <c r="P28">
-        <v>12341</v>
+        <v>5038.2</v>
       </c>
       <c r="Q28">
-        <v>453</v>
+        <v>-270.89999999999998</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>14169.7</v>
+        <v>11560</v>
       </c>
       <c r="U28">
-        <v>3069.9</v>
+        <v>2220.5</v>
       </c>
       <c r="V28">
-        <v>1651.1</v>
+        <v>588.5</v>
       </c>
       <c r="W28">
-        <v>-548.70000000000005</v>
+        <v>-463.6</v>
       </c>
       <c r="X28">
-        <v>1059.9000000000001</v>
+        <v>-724.6</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-1918.2</v>
+        <v>475.4</v>
       </c>
       <c r="AA28">
-        <v>1008</v>
+        <v>663.6</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>555.6</v>
+        <v>926.3</v>
       </c>
       <c r="D29">
-        <v>5658</v>
+        <v>4586.8</v>
       </c>
       <c r="E29">
-        <v>4401.3</v>
+        <v>2516.3000000000002</v>
       </c>
       <c r="F29">
-        <v>4071.7</v>
+        <v>3532.2</v>
       </c>
       <c r="G29">
-        <v>17428.400000000001</v>
+        <v>10453.700000000001</v>
       </c>
       <c r="H29">
-        <v>43010.400000000001</v>
+        <v>24973.5</v>
       </c>
       <c r="I29">
-        <v>1200.0999999999999</v>
+        <v>744.9</v>
       </c>
       <c r="J29">
-        <v>9948.9</v>
+        <v>4532.2</v>
       </c>
       <c r="K29">
-        <v>2526</v>
+        <v>442.1</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>12666.5</v>
+        <v>4071.6</v>
       </c>
       <c r="O29">
-        <v>28049.8</v>
+        <v>12026.6</v>
       </c>
       <c r="P29">
-        <v>13530.8</v>
+        <v>4974.3</v>
       </c>
       <c r="Q29">
-        <v>654.4</v>
+        <v>275</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>14960.6</v>
+        <v>12946.9</v>
       </c>
       <c r="U29">
-        <v>3724.3</v>
+        <v>2495.5</v>
       </c>
       <c r="V29">
-        <v>1881.1</v>
+        <v>1444.5</v>
       </c>
       <c r="W29">
-        <v>-547.70000000000005</v>
+        <v>-463.3</v>
       </c>
       <c r="X29">
-        <v>500.7</v>
+        <v>-573.20000000000005</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-1249.2</v>
+        <v>-288.7</v>
       </c>
       <c r="AA29">
-        <v>555.6</v>
+        <v>926.3</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-1656.9</v>
+        <v>854.4</v>
       </c>
       <c r="D30">
-        <v>6160.7</v>
+        <v>5189.6000000000004</v>
       </c>
       <c r="E30">
-        <v>4546.3</v>
+        <v>2673.9</v>
       </c>
       <c r="F30">
-        <v>4515.8</v>
+        <v>3916.8</v>
       </c>
       <c r="G30">
-        <v>19202.099999999999</v>
+        <v>12316.1</v>
       </c>
       <c r="H30">
-        <v>44981</v>
+        <v>26874.799999999999</v>
       </c>
       <c r="I30">
-        <v>1410.7</v>
+        <v>924.4</v>
       </c>
       <c r="J30">
-        <v>9977</v>
+        <v>4593.5</v>
       </c>
       <c r="K30">
-        <v>2696.8</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>14535.9</v>
+        <v>5436.8</v>
       </c>
       <c r="O30">
-        <v>33313.1</v>
+        <v>13370.9</v>
       </c>
       <c r="P30">
-        <v>13717.2</v>
+        <v>5007.2</v>
       </c>
       <c r="Q30">
-        <v>2811.9</v>
+        <v>725</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>40655</v>
+        <v>40600</v>
       </c>
       <c r="T30">
-        <v>11667.9</v>
+        <v>13503.9</v>
       </c>
       <c r="U30">
-        <v>6536.2</v>
+        <v>3220.5</v>
       </c>
       <c r="V30">
-        <v>1743.5</v>
+        <v>2229.6999999999998</v>
       </c>
       <c r="W30">
-        <v>-548.29999999999995</v>
+        <v>-463.8</v>
       </c>
       <c r="X30">
-        <v>-542.29999999999995</v>
+        <v>-490.7</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>2143.5</v>
+        <v>-555.70000000000005</v>
       </c>
       <c r="AA30">
-        <v>-1656.9</v>
+        <v>854.4</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>1217.4000000000001</v>
+        <v>1064.3</v>
       </c>
       <c r="D31">
-        <v>4963.8</v>
+        <v>4807.6000000000004</v>
       </c>
       <c r="E31">
-        <v>4495.1000000000004</v>
+        <v>2661.1</v>
       </c>
       <c r="F31">
-        <v>3799.2</v>
+        <v>3696.3</v>
       </c>
       <c r="G31">
-        <v>16261.5</v>
+        <v>12553.4</v>
       </c>
       <c r="H31">
-        <v>44355.6</v>
+        <v>27307.200000000001</v>
       </c>
       <c r="I31">
-        <v>1267.4000000000001</v>
+        <v>789.8</v>
       </c>
       <c r="J31">
-        <v>9465.2999999999993</v>
+        <v>4648.3</v>
       </c>
       <c r="K31">
-        <v>1494.3</v>
+        <v>73</v>
       </c>
       <c r="L31">
-        <v>-1202.5</v>
+        <v>-342.5</v>
       </c>
       <c r="M31">
-        <v>-800.3</v>
+        <v>0</v>
       </c>
       <c r="N31">
-        <v>11547</v>
+        <v>4332.8</v>
       </c>
       <c r="O31">
-        <v>29767.8</v>
+        <v>12557.5</v>
       </c>
       <c r="P31">
-        <v>11812.8</v>
+        <v>4721.3</v>
       </c>
       <c r="Q31">
-        <v>-3451.9</v>
+        <v>-75.099999999999994</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>14587.8</v>
+        <v>14749.7</v>
       </c>
       <c r="U31">
-        <v>3084.3</v>
+        <v>3145.4</v>
       </c>
       <c r="V31">
-        <v>436.5</v>
+        <v>1702.6</v>
       </c>
       <c r="W31">
-        <v>-587.29999999999995</v>
+        <v>-513.6</v>
       </c>
       <c r="X31">
-        <v>-3866.5</v>
+        <v>-861.9</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>87.4</v>
+        <v>-721.2</v>
       </c>
       <c r="AA31">
-        <v>1217.4000000000001</v>
+        <v>1064.3</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>-259.89999999999998</v>
+        <v>958.8</v>
       </c>
       <c r="D32">
-        <v>5585</v>
+        <v>5150.3999999999996</v>
       </c>
       <c r="E32">
-        <v>4823</v>
+        <v>2739</v>
       </c>
       <c r="F32">
-        <v>4350.7</v>
+        <v>4006.6</v>
       </c>
       <c r="G32">
-        <v>18332.7</v>
+        <v>12677.1</v>
       </c>
       <c r="H32">
-        <v>42359.199999999997</v>
+        <v>27752</v>
       </c>
       <c r="I32">
-        <v>1316.9</v>
+        <v>810.7</v>
       </c>
       <c r="J32">
-        <v>9216</v>
+        <v>4545.8</v>
       </c>
       <c r="K32">
-        <v>2448</v>
+        <v>68</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>13055.2</v>
+        <v>5258.8</v>
       </c>
       <c r="O32">
-        <v>30738.400000000001</v>
+        <v>13014</v>
       </c>
       <c r="P32">
-        <v>12289.8</v>
+        <v>4613.8</v>
       </c>
       <c r="Q32">
-        <v>3733</v>
+        <v>-277.10000000000002</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>11620.8</v>
+        <v>14738</v>
       </c>
       <c r="U32">
-        <v>6817.3</v>
+        <v>2868.3</v>
       </c>
       <c r="V32">
-        <v>1517.5</v>
+        <v>1080.9000000000001</v>
       </c>
       <c r="W32">
-        <v>-579.29999999999995</v>
+        <v>-507.6</v>
       </c>
       <c r="X32">
-        <v>-831.4</v>
+        <v>-523.5</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>5015.7</v>
+        <v>-514</v>
       </c>
       <c r="AA32">
-        <v>-259.89999999999998</v>
+        <v>958.8</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>1149.5</v>
+        <v>-465.6</v>
       </c>
       <c r="D33">
-        <v>5306.9</v>
+        <v>5209.5</v>
       </c>
       <c r="E33">
-        <v>4859.3999999999996</v>
+        <v>2702</v>
       </c>
       <c r="F33">
-        <v>4154</v>
+        <v>4054.3</v>
       </c>
       <c r="G33">
-        <v>20685.900000000001</v>
+        <v>12945.8</v>
       </c>
       <c r="H33">
-        <v>44625.1</v>
+        <v>27707.1</v>
       </c>
       <c r="I33">
-        <v>1281.2</v>
+        <v>854.4</v>
       </c>
       <c r="J33">
-        <v>11741.2</v>
+        <v>4185.6000000000004</v>
       </c>
       <c r="K33">
-        <v>399.7</v>
+        <v>426.5</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>10826.7</v>
+        <v>6509.8</v>
       </c>
       <c r="O33">
-        <v>30474.2</v>
+        <v>13965.5</v>
       </c>
       <c r="P33">
-        <v>12762.7</v>
+        <v>4612.1000000000004</v>
       </c>
       <c r="Q33">
-        <v>2142.6999999999998</v>
+        <v>1485.3</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>14150.9</v>
+        <v>13741.6</v>
       </c>
       <c r="U33">
-        <v>8960</v>
+        <v>4353.6000000000004</v>
       </c>
       <c r="V33">
-        <v>2121.8000000000002</v>
+        <v>2131.6</v>
       </c>
       <c r="W33">
-        <v>-572.6</v>
+        <v>-520.29999999999995</v>
       </c>
       <c r="X33">
-        <v>432.7</v>
+        <v>-565.79999999999995</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>45.2</v>
+        <v>356</v>
       </c>
       <c r="AA33">
-        <v>1149.5</v>
+        <v>-465.6</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>1125</v>
+        <v>-3629.4</v>
       </c>
       <c r="D34">
-        <v>5637.6</v>
+        <v>5204.3999999999996</v>
       </c>
       <c r="E34">
-        <v>4593.8999999999996</v>
+        <v>2778.8</v>
       </c>
       <c r="F34">
-        <v>4507.7</v>
+        <v>4295.1000000000004</v>
       </c>
       <c r="G34">
-        <v>20549.599999999999</v>
+        <v>12453.3</v>
       </c>
       <c r="H34">
-        <v>43908.4</v>
+        <v>29212.6</v>
       </c>
       <c r="I34">
-        <v>1207.0999999999999</v>
+        <v>885.8</v>
       </c>
       <c r="J34">
-        <v>9241.2000000000007</v>
+        <v>4615.7</v>
       </c>
       <c r="K34">
-        <v>498.9</v>
+        <v>5425.9</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>11888.1</v>
+        <v>13109.7</v>
       </c>
       <c r="O34">
-        <v>32999.300000000003</v>
+        <v>22474.9</v>
       </c>
       <c r="P34">
-        <v>10374.9</v>
+        <v>10462</v>
       </c>
       <c r="Q34">
-        <v>-961.8</v>
+        <v>1143.0999999999999</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>38680</v>
+        <v>40450</v>
       </c>
       <c r="T34">
-        <v>10909.1</v>
+        <v>6737.7</v>
       </c>
       <c r="U34">
-        <v>7320.7</v>
+        <v>5496.7</v>
       </c>
       <c r="V34">
-        <v>1448.7</v>
+        <v>2380.5</v>
       </c>
       <c r="W34">
-        <v>-572.6</v>
+        <v>-515.20000000000005</v>
       </c>
       <c r="X34">
-        <v>-1639.7</v>
+        <v>4297.2</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-36.4</v>
+        <v>1021.7</v>
       </c>
       <c r="AA34">
-        <v>1125</v>
+        <v>-3629.4</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>4241.6000000000004</v>
+        <v>1313.1</v>
       </c>
       <c r="D35">
-        <v>5092.2</v>
+        <v>5047</v>
       </c>
       <c r="E35">
-        <v>4200.5</v>
+        <v>2676.4</v>
       </c>
       <c r="F35">
-        <v>3953.5</v>
+        <v>4230.6000000000004</v>
       </c>
       <c r="G35">
-        <v>12597.5</v>
+        <v>10260.4</v>
       </c>
       <c r="H35">
-        <v>38006.800000000003</v>
+        <v>26596.799999999999</v>
       </c>
       <c r="I35">
-        <v>1168.0999999999999</v>
+        <v>1022.7</v>
       </c>
       <c r="J35">
-        <v>13645.5</v>
+        <v>6870.8</v>
       </c>
       <c r="K35">
-        <v>2349.6</v>
+        <v>1602.8</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-4243.6000000000004</v>
       </c>
       <c r="M35">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>11236.1</v>
+        <v>7357.7</v>
       </c>
       <c r="O35">
-        <v>35441.800000000003</v>
+        <v>18872</v>
       </c>
       <c r="P35">
-        <v>16627.599999999999</v>
+        <v>8473.6</v>
       </c>
       <c r="Q35">
-        <v>-5961.8</v>
+        <v>-2183.6</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>2565</v>
+        <v>7724.8</v>
       </c>
       <c r="U35">
-        <v>2036.4</v>
+        <v>3313.1</v>
       </c>
       <c r="V35">
-        <v>311.3</v>
+        <v>87.9</v>
       </c>
       <c r="W35">
-        <v>-637.20000000000005</v>
+        <v>-536.79999999999995</v>
       </c>
       <c r="X35">
-        <v>1367.8</v>
+        <v>-2380.4</v>
       </c>
       <c r="Y35">
-        <v>508.2</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>25.2</v>
+        <v>403.3</v>
       </c>
       <c r="AA35">
-        <v>4241.6000000000004</v>
+        <v>1313.1</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>1327.2</v>
+        <v>1158.5</v>
       </c>
       <c r="D36">
-        <v>5636.7</v>
+        <v>5292.8</v>
       </c>
       <c r="E36">
-        <v>4612.5</v>
+        <v>2841.3</v>
       </c>
       <c r="F36">
-        <v>4511.8</v>
+        <v>4345.3999999999996</v>
       </c>
       <c r="G36">
-        <v>13454.5</v>
+        <v>10935.3</v>
       </c>
       <c r="H36">
-        <v>38666.400000000001</v>
+        <v>26931.5</v>
       </c>
       <c r="I36">
-        <v>1198.9000000000001</v>
+        <v>918.6</v>
       </c>
       <c r="J36">
-        <v>13738.7</v>
+        <v>6688</v>
       </c>
       <c r="K36">
-        <v>2058.3000000000002</v>
+        <v>1034.9000000000001</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>11855.4</v>
+        <v>6989.3</v>
       </c>
       <c r="O36">
-        <v>35809.1</v>
+        <v>18371.5</v>
       </c>
       <c r="P36">
-        <v>16432.5</v>
+        <v>7722.9</v>
       </c>
       <c r="Q36">
-        <v>253.8</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2857.3</v>
+        <v>8560</v>
       </c>
       <c r="U36">
-        <v>2290.1999999999998</v>
+        <v>3322.3</v>
       </c>
       <c r="V36">
-        <v>1051.5</v>
+        <v>923.3</v>
       </c>
       <c r="W36">
-        <v>-598</v>
+        <v>-539</v>
       </c>
       <c r="X36">
-        <v>-885.8</v>
+        <v>-1111.5999999999999</v>
       </c>
       <c r="Y36">
-        <v>503.3</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>299.89999999999998</v>
+        <v>299.10000000000002</v>
       </c>
       <c r="AA36">
-        <v>1327.2</v>
+        <v>1158.5</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>1253.9000000000001</v>
+        <v>941.8</v>
       </c>
       <c r="D37">
-        <v>5476.6</v>
+        <v>5562</v>
       </c>
       <c r="E37">
-        <v>4441.7</v>
+        <v>3016.8</v>
       </c>
       <c r="F37">
-        <v>4301.6000000000004</v>
+        <v>4510.1000000000004</v>
       </c>
       <c r="G37">
-        <v>12661.8</v>
+        <v>11810</v>
       </c>
       <c r="H37">
-        <v>37893.1</v>
+        <v>27127.9</v>
       </c>
       <c r="I37">
-        <v>1114.9000000000001</v>
+        <v>887.7</v>
       </c>
       <c r="J37">
-        <v>13744.7</v>
+        <v>6769.7</v>
       </c>
       <c r="K37">
-        <v>1557.8</v>
+        <v>622.5</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>10828.6</v>
+        <v>6067.5</v>
       </c>
       <c r="O37">
-        <v>34430.800000000003</v>
+        <v>17222.900000000001</v>
       </c>
       <c r="P37">
-        <v>15919.3</v>
+        <v>7392.2</v>
       </c>
       <c r="Q37">
-        <v>-726.4</v>
+        <v>525.9</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3462.3</v>
+        <v>9905</v>
       </c>
       <c r="U37">
-        <v>1563.8</v>
+        <v>3848.2</v>
       </c>
       <c r="V37">
-        <v>1510.1</v>
+        <v>1305.7</v>
       </c>
       <c r="W37">
-        <v>-587.4</v>
+        <v>-536.6</v>
       </c>
       <c r="X37">
-        <v>-1692.9</v>
+        <v>-913.2</v>
       </c>
       <c r="Y37">
-        <v>485.2</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>58.8</v>
+        <v>273.7</v>
       </c>
       <c r="AA37">
-        <v>1253.9000000000001</v>
+        <v>941.8</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>1495.7</v>
+        <v>915.4</v>
       </c>
       <c r="D38">
-        <v>6114</v>
+        <v>5934.2</v>
       </c>
       <c r="E38">
-        <v>4547.3</v>
+        <v>3343.3</v>
       </c>
       <c r="F38">
-        <v>4831.3999999999996</v>
+        <v>4502.8999999999996</v>
       </c>
       <c r="G38">
-        <v>13709.6</v>
+        <v>12486.5</v>
       </c>
       <c r="H38">
-        <v>39286.1</v>
+        <v>27460.9</v>
       </c>
       <c r="I38">
-        <v>1405.3</v>
+        <v>968.1</v>
       </c>
       <c r="J38">
-        <v>13843.7</v>
+        <v>6640.9</v>
       </c>
       <c r="K38">
-        <v>1494.2</v>
+        <v>7.1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>11775.2</v>
+        <v>6568.1</v>
       </c>
       <c r="O38">
-        <v>36587</v>
+        <v>17935.599999999999</v>
       </c>
       <c r="P38">
-        <v>15364.4</v>
+        <v>6668.3</v>
       </c>
       <c r="Q38">
-        <v>773.7</v>
+        <v>614.70000000000005</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>33625</v>
+        <v>40360</v>
       </c>
       <c r="T38">
-        <v>2699.1</v>
+        <v>9525.2999999999993</v>
       </c>
       <c r="U38">
-        <v>2337.5</v>
+        <v>4462.8999999999996</v>
       </c>
       <c r="V38">
-        <v>1963.7</v>
+        <v>2018.6</v>
       </c>
       <c r="W38">
-        <v>-587.20000000000005</v>
+        <v>-539.70000000000005</v>
       </c>
       <c r="X38">
-        <v>-1113.5999999999999</v>
+        <v>-1128.5</v>
       </c>
       <c r="Y38">
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>72.3</v>
+        <v>98.5</v>
       </c>
       <c r="AA38">
-        <v>1495.7</v>
+        <v>915.4</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1456.5</v>
+        <v>1248.0999999999999</v>
       </c>
       <c r="D39">
-        <v>5859.8</v>
+        <v>5485.5</v>
       </c>
       <c r="E39">
-        <v>5106.1000000000004</v>
+        <v>3194.3</v>
       </c>
       <c r="F39">
-        <v>4644.7</v>
+        <v>4363</v>
       </c>
       <c r="G39">
-        <v>13994.2</v>
+        <v>12252.4</v>
       </c>
       <c r="H39">
-        <v>41102.800000000003</v>
+        <v>27197.8</v>
       </c>
       <c r="I39">
-        <v>1207.7</v>
+        <v>964</v>
       </c>
       <c r="J39">
-        <v>14383.4</v>
+        <v>6661.3</v>
       </c>
       <c r="K39">
-        <v>3243.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-7.9</v>
       </c>
       <c r="M39">
-        <v>-276.3</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>12610.2</v>
+        <v>5657.6</v>
       </c>
       <c r="O39">
-        <v>37905.599999999999</v>
+        <v>16735.5</v>
       </c>
       <c r="P39">
-        <v>17633.2</v>
+        <v>6681.4</v>
       </c>
       <c r="Q39">
-        <v>-638.5</v>
+        <v>262.3</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3197.2</v>
+        <v>10462.299999999999</v>
       </c>
       <c r="U39">
-        <v>1699</v>
+        <v>4725.2</v>
       </c>
       <c r="V39">
-        <v>382.4</v>
+        <v>958</v>
       </c>
       <c r="W39">
-        <v>-671.3</v>
+        <v>-539.20000000000005</v>
       </c>
       <c r="X39">
-        <v>106.7</v>
+        <v>-547</v>
       </c>
       <c r="Y39">
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>8.3000000000000007</v>
+        <v>133</v>
       </c>
       <c r="AA39">
-        <v>1456.5</v>
+        <v>1248.0999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>1412</v>
+        <v>1348.9</v>
       </c>
       <c r="D40">
-        <v>5499.4</v>
+        <v>5748.7</v>
       </c>
       <c r="E40">
-        <v>4828.8999999999996</v>
+        <v>3065.2</v>
       </c>
       <c r="F40">
-        <v>4277.3999999999996</v>
+        <v>4724.8</v>
       </c>
       <c r="G40">
-        <v>14581.9</v>
+        <v>12466.4</v>
       </c>
       <c r="H40">
-        <v>41967</v>
+        <v>27723.1</v>
       </c>
       <c r="I40">
-        <v>1247.2</v>
+        <v>950.3</v>
       </c>
       <c r="J40">
-        <v>15418.6</v>
+        <v>6862.2</v>
       </c>
       <c r="K40">
-        <v>1258.8</v>
+        <v>26.7</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>11988.5</v>
+        <v>6324.6</v>
       </c>
       <c r="O40">
-        <v>37695</v>
+        <v>17487.8</v>
       </c>
       <c r="P40">
-        <v>16689.5</v>
+        <v>6888.9</v>
       </c>
       <c r="Q40">
-        <v>666.1</v>
+        <v>438.3</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>4272</v>
+        <v>10235.299999999999</v>
       </c>
       <c r="U40">
-        <v>2365.1</v>
+        <v>5163.5</v>
       </c>
       <c r="V40">
-        <v>2495.4</v>
+        <v>1911.6</v>
       </c>
       <c r="W40">
-        <v>-674.2</v>
+        <v>-536.70000000000005</v>
       </c>
       <c r="X40">
-        <v>-1673.2</v>
+        <v>-531.5</v>
       </c>
       <c r="Y40">
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>360.1</v>
+        <v>-4.8</v>
       </c>
       <c r="AA40">
-        <v>1412</v>
+        <v>1348.9</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1208.4000000000001</v>
+        <v>1302.9000000000001</v>
       </c>
       <c r="D41">
-        <v>5740.6</v>
+        <v>5654.8</v>
       </c>
       <c r="E41">
-        <v>4886.7</v>
+        <v>3336</v>
       </c>
       <c r="F41">
-        <v>4414.2</v>
+        <v>4667.2</v>
       </c>
       <c r="G41">
-        <v>16239.9</v>
+        <v>14184.3</v>
       </c>
       <c r="H41">
-        <v>43946</v>
+        <v>29904.3</v>
       </c>
       <c r="I41">
-        <v>1430.1</v>
+        <v>1034.7</v>
       </c>
       <c r="J41">
-        <v>16606.400000000001</v>
+        <v>6982</v>
       </c>
       <c r="K41">
-        <v>579.9</v>
+        <v>155.1</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>11976.9</v>
+        <v>6097.4</v>
       </c>
       <c r="O41">
-        <v>38950</v>
+        <v>17498.8</v>
       </c>
       <c r="P41">
-        <v>17224.2</v>
+        <v>7137.1</v>
       </c>
       <c r="Q41">
-        <v>1230.2</v>
+        <v>745.3</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>4996</v>
+        <v>12405.5</v>
       </c>
       <c r="U41">
-        <v>3595.3</v>
+        <v>5908.8</v>
       </c>
       <c r="V41">
-        <v>1806.6</v>
+        <v>1759.1</v>
       </c>
       <c r="W41">
-        <v>-671.6</v>
+        <v>-545.29999999999995</v>
       </c>
       <c r="X41">
-        <v>-279.10000000000002</v>
+        <v>-393.8</v>
       </c>
       <c r="Y41">
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>89.4</v>
+        <v>-402.6</v>
       </c>
       <c r="AA41">
-        <v>1208.4000000000001</v>
+        <v>1302.9000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>1169.5999999999999</v>
+      </c>
+      <c r="D42">
+        <v>6187</v>
+      </c>
+      <c r="E42">
+        <v>3493.8</v>
+      </c>
+      <c r="F42">
+        <v>4954.8</v>
+      </c>
+      <c r="G42">
+        <v>14840</v>
+      </c>
+      <c r="H42">
+        <v>31001.4</v>
+      </c>
+      <c r="I42">
+        <v>1072.2</v>
+      </c>
+      <c r="J42">
+        <v>6770.5</v>
+      </c>
+      <c r="K42">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>6926.9</v>
+      </c>
+      <c r="O42">
+        <v>18588.599999999999</v>
+      </c>
+      <c r="P42">
+        <v>6926.5</v>
+      </c>
+      <c r="Q42">
+        <v>84.4</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>38350</v>
+      </c>
+      <c r="T42">
+        <v>12412.8</v>
+      </c>
+      <c r="U42">
+        <v>5993.2</v>
+      </c>
+      <c r="V42">
+        <v>2228.1</v>
+      </c>
+      <c r="W42">
+        <v>-544.1</v>
+      </c>
+      <c r="X42">
+        <v>-549.6</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-894.6</v>
+      </c>
+      <c r="AA42">
+        <v>1169.5999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>1055.9000000000001</v>
+      </c>
+      <c r="D43">
+        <v>5839.2</v>
+      </c>
+      <c r="E43">
+        <v>3694.3</v>
+      </c>
+      <c r="F43">
+        <v>4659.1000000000004</v>
+      </c>
+      <c r="G43">
+        <v>15354.3</v>
+      </c>
+      <c r="H43">
+        <v>31695.3</v>
+      </c>
+      <c r="I43">
+        <v>1183.2</v>
+      </c>
+      <c r="J43">
+        <v>5132.3999999999996</v>
+      </c>
+      <c r="K43">
+        <v>1539.9</v>
+      </c>
+      <c r="L43">
+        <v>-116.2</v>
+      </c>
+      <c r="M43">
+        <v>-54.6</v>
+      </c>
+      <c r="N43">
+        <v>7651.8</v>
+      </c>
+      <c r="O43">
+        <v>17761.099999999999</v>
+      </c>
+      <c r="P43">
+        <v>6672.3</v>
+      </c>
+      <c r="Q43">
+        <v>513.20000000000005</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>13934.2</v>
+      </c>
+      <c r="U43">
+        <v>6506.4</v>
+      </c>
+      <c r="V43">
+        <v>1176.0999999999999</v>
+      </c>
+      <c r="W43">
+        <v>-543.20000000000005</v>
+      </c>
+      <c r="X43">
+        <v>-713.8</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>512.6</v>
+      </c>
+      <c r="AA43">
+        <v>1055.9000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>1197.3</v>
+      </c>
+      <c r="D44">
+        <v>6252.8</v>
+      </c>
+      <c r="E44">
+        <v>3833.6</v>
+      </c>
+      <c r="F44">
+        <v>5024.8</v>
+      </c>
+      <c r="G44">
+        <v>14950.3</v>
+      </c>
+      <c r="H44">
+        <v>32779.300000000003</v>
+      </c>
+      <c r="I44">
+        <v>1187.5999999999999</v>
+      </c>
+      <c r="J44">
+        <v>5200.1000000000004</v>
+      </c>
+      <c r="K44">
+        <v>1528.5</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>8620.5</v>
+      </c>
+      <c r="O44">
+        <v>18502.3</v>
+      </c>
+      <c r="P44">
+        <v>6728.6</v>
+      </c>
+      <c r="Q44">
+        <v>-392.9</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>14277</v>
+      </c>
+      <c r="U44">
+        <v>6113.5</v>
+      </c>
+      <c r="V44">
+        <v>2040.3</v>
+      </c>
+      <c r="W44">
+        <v>-552.1</v>
+      </c>
+      <c r="X44">
+        <v>-564.29999999999995</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>-1194.3</v>
+      </c>
+      <c r="AA44">
+        <v>1197.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>1236.3</v>
+      </c>
+      <c r="D45">
+        <v>6147.9</v>
+      </c>
+      <c r="E45">
+        <v>3533.2</v>
+      </c>
+      <c r="F45">
+        <v>4809.8</v>
+      </c>
+      <c r="G45">
+        <v>14572.7</v>
+      </c>
+      <c r="H45">
+        <v>33042.199999999997</v>
+      </c>
+      <c r="I45">
+        <v>1154.3</v>
+      </c>
+      <c r="J45">
+        <v>5451.3</v>
+      </c>
+      <c r="K45">
+        <v>1628.7</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>8219.2999999999993</v>
+      </c>
+      <c r="O45">
+        <v>17984.3</v>
+      </c>
+      <c r="P45">
+        <v>7080</v>
+      </c>
+      <c r="Q45">
+        <v>484.2</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>15057.9</v>
+      </c>
+      <c r="U45">
+        <v>6597.7</v>
+      </c>
+      <c r="V45">
+        <v>2073.4</v>
+      </c>
+      <c r="W45">
+        <v>-540.9</v>
+      </c>
+      <c r="X45">
+        <v>-440.9</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-350</v>
+      </c>
+      <c r="AA45">
+        <v>1236.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>858.2</v>
+      </c>
+      <c r="D46">
+        <v>6046.6</v>
+      </c>
+      <c r="E46">
+        <v>3597.7</v>
+      </c>
+      <c r="F46">
+        <v>4724.8999999999996</v>
+      </c>
+      <c r="G46">
+        <v>14248.2</v>
+      </c>
+      <c r="H46">
+        <v>33659.800000000003</v>
+      </c>
+      <c r="I46">
+        <v>1125.2</v>
+      </c>
+      <c r="J46">
+        <v>5464.7</v>
+      </c>
+      <c r="K46">
+        <v>5.5</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>8930.9</v>
+      </c>
+      <c r="O46">
+        <v>20124.2</v>
+      </c>
+      <c r="P46">
+        <v>6987</v>
+      </c>
+      <c r="Q46">
+        <v>-675.2</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>38080</v>
+      </c>
+      <c r="T46">
+        <v>13535.6</v>
+      </c>
+      <c r="U46">
+        <v>5922.5</v>
+      </c>
+      <c r="V46">
+        <v>1944.7</v>
+      </c>
+      <c r="W46">
+        <v>-543.9</v>
+      </c>
+      <c r="X46">
+        <v>-650.9</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-1540.1</v>
+      </c>
+      <c r="AA46">
+        <v>858.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>1011.1</v>
+      </c>
+      <c r="D47">
+        <v>5602</v>
+      </c>
+      <c r="E47">
+        <v>3402.1</v>
+      </c>
+      <c r="F47">
+        <v>4404.1000000000004</v>
+      </c>
+      <c r="G47">
+        <v>12602.6</v>
+      </c>
+      <c r="H47">
+        <v>32238.2</v>
+      </c>
+      <c r="I47">
+        <v>1246.3</v>
+      </c>
+      <c r="J47">
+        <v>5403.2</v>
+      </c>
+      <c r="K47">
+        <v>10.6</v>
+      </c>
+      <c r="L47">
+        <v>-5.3</v>
+      </c>
+      <c r="M47">
+        <v>-1507.1</v>
+      </c>
+      <c r="N47">
+        <v>6553.7</v>
+      </c>
+      <c r="O47">
+        <v>17415.599999999999</v>
+      </c>
+      <c r="P47">
+        <v>5413.8</v>
+      </c>
+      <c r="Q47">
+        <v>-1800.3</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>14822.6</v>
+      </c>
+      <c r="U47">
+        <v>4122.2</v>
+      </c>
+      <c r="V47">
+        <v>852.5</v>
+      </c>
+      <c r="W47">
+        <v>-544.6</v>
+      </c>
+      <c r="X47">
+        <v>-2057</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-275.3</v>
+      </c>
+      <c r="AA47">
+        <v>1011.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>923.6</v>
+      </c>
+      <c r="D48">
+        <v>5600.7</v>
+      </c>
+      <c r="E48">
+        <v>3181.7</v>
+      </c>
+      <c r="F48">
+        <v>4454</v>
+      </c>
+      <c r="G48">
+        <v>12307.3</v>
+      </c>
+      <c r="H48">
+        <v>31812.6</v>
+      </c>
+      <c r="I48">
+        <v>1201.5999999999999</v>
+      </c>
+      <c r="J48">
+        <v>5500.2</v>
+      </c>
+      <c r="K48">
+        <v>9.1</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>6609.7</v>
+      </c>
+      <c r="O48">
+        <v>17504.7</v>
+      </c>
+      <c r="P48">
+        <v>5509.3</v>
+      </c>
+      <c r="Q48">
+        <v>223.6</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>14307.9</v>
+      </c>
+      <c r="U48">
+        <v>4345.8</v>
+      </c>
+      <c r="V48">
+        <v>1306</v>
+      </c>
+      <c r="W48">
+        <v>-550.4</v>
+      </c>
+      <c r="X48">
+        <v>-552.70000000000005</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-141.30000000000001</v>
+      </c>
+      <c r="AA48">
+        <v>923.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>1326.6</v>
+      </c>
+      <c r="D49">
+        <v>5443.3</v>
+      </c>
+      <c r="E49">
+        <v>3268.2</v>
+      </c>
+      <c r="F49">
+        <v>4239.7</v>
+      </c>
+      <c r="G49">
+        <v>14038.9</v>
+      </c>
+      <c r="H49">
+        <v>34321</v>
+      </c>
+      <c r="I49">
+        <v>1328.7</v>
+      </c>
+      <c r="J49">
+        <v>5510.9</v>
+      </c>
+      <c r="K49">
+        <v>9.1</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>6960.7</v>
+      </c>
+      <c r="O49">
+        <v>18264.099999999999</v>
+      </c>
+      <c r="P49">
+        <v>5520</v>
+      </c>
+      <c r="Q49">
+        <v>973.4</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>16056.9</v>
+      </c>
+      <c r="U49">
+        <v>5319.2</v>
+      </c>
+      <c r="V49">
+        <v>1544.3</v>
+      </c>
+      <c r="W49">
+        <v>-544.20000000000005</v>
+      </c>
+      <c r="X49">
+        <v>-544.70000000000005</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-1275.5</v>
+      </c>
+      <c r="AA49">
+        <v>1326.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>827.3</v>
+      </c>
+      <c r="D50">
+        <v>5957.4</v>
+      </c>
+      <c r="E50">
+        <v>3336.3</v>
+      </c>
+      <c r="F50">
+        <v>4709.1000000000004</v>
+      </c>
+      <c r="G50">
+        <v>13038.7</v>
+      </c>
+      <c r="H50">
+        <v>34398.9</v>
+      </c>
+      <c r="I50">
+        <v>1188.3</v>
+      </c>
+      <c r="J50">
+        <v>5519.4</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>8389.5</v>
+      </c>
+      <c r="O50">
+        <v>19625</v>
+      </c>
+      <c r="P50">
+        <v>5531.3</v>
+      </c>
+      <c r="Q50">
+        <v>-1300.4000000000001</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>38350</v>
+      </c>
+      <c r="T50">
+        <v>14773.9</v>
+      </c>
+      <c r="U50">
+        <v>4018.8</v>
+      </c>
+      <c r="V50">
+        <v>1602</v>
+      </c>
+      <c r="W50">
+        <v>-548.20000000000005</v>
+      </c>
+      <c r="X50">
+        <v>-1265.2</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-1195.7</v>
+      </c>
+      <c r="AA50">
+        <v>827.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>1548</v>
+      </c>
+      <c r="D51">
+        <v>5602</v>
+      </c>
+      <c r="E51">
+        <v>3439.7</v>
+      </c>
+      <c r="F51">
+        <v>4443.7</v>
+      </c>
+      <c r="G51">
+        <v>12326.1</v>
+      </c>
+      <c r="H51">
+        <v>32300.1</v>
+      </c>
+      <c r="I51">
+        <v>974.4</v>
+      </c>
+      <c r="J51">
+        <v>4431.6000000000004</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-0.9</v>
+      </c>
+      <c r="N51">
+        <v>7593.6</v>
+      </c>
+      <c r="O51">
+        <v>17344.5</v>
+      </c>
+      <c r="P51">
+        <v>5459.6</v>
+      </c>
+      <c r="Q51">
+        <v>-82.2</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>14955.6</v>
+      </c>
+      <c r="U51">
+        <v>3936.6</v>
+      </c>
+      <c r="V51">
+        <v>379.4</v>
+      </c>
+      <c r="W51">
+        <v>-531.1</v>
+      </c>
+      <c r="X51">
+        <v>-1730.1</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>1531.4</v>
+      </c>
+      <c r="AA51">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>1206.2</v>
+      </c>
+      <c r="D52">
+        <v>5929.7</v>
+      </c>
+      <c r="E52">
+        <v>3579.1</v>
+      </c>
+      <c r="F52">
+        <v>4764.5</v>
+      </c>
+      <c r="G52">
+        <v>12639.3</v>
+      </c>
+      <c r="H52">
+        <v>33226</v>
+      </c>
+      <c r="I52">
+        <v>1141</v>
+      </c>
+      <c r="J52">
+        <v>4290.8</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>8408.5</v>
+      </c>
+      <c r="O52">
+        <v>17989.599999999999</v>
+      </c>
+      <c r="P52">
+        <v>5314</v>
+      </c>
+      <c r="Q52">
+        <v>-150.1</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>15236.4</v>
+      </c>
+      <c r="U52">
+        <v>3786.5</v>
+      </c>
+      <c r="V52">
+        <v>1637.2</v>
+      </c>
+      <c r="W52">
+        <v>-533</v>
+      </c>
+      <c r="X52">
+        <v>-533.79999999999995</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-1078</v>
+      </c>
+      <c r="AA52">
+        <v>1206.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>1203.0999999999999</v>
+      </c>
+      <c r="D53">
+        <v>5772.6</v>
+      </c>
+      <c r="E53">
+        <v>3445</v>
+      </c>
+      <c r="F53">
+        <v>4574.5</v>
+      </c>
+      <c r="G53">
+        <v>13202.2</v>
+      </c>
+      <c r="H53">
+        <v>33965.599999999999</v>
+      </c>
+      <c r="I53">
+        <v>1247.4000000000001</v>
+      </c>
+      <c r="J53">
+        <v>4263.8</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>8076.1</v>
+      </c>
+      <c r="O53">
+        <v>17069.5</v>
+      </c>
+      <c r="P53">
+        <v>5287.2</v>
+      </c>
+      <c r="Q53">
+        <v>582.4</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>16896.099999999999</v>
+      </c>
+      <c r="U53">
+        <v>4368.8999999999996</v>
+      </c>
+      <c r="V53">
+        <v>1991.6</v>
+      </c>
+      <c r="W53">
+        <v>-527.70000000000005</v>
+      </c>
+      <c r="X53">
+        <v>-529</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>-610.5</v>
+      </c>
+      <c r="AA53">
+        <v>1203.0999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>727.5</v>
+      </c>
+      <c r="D54">
+        <v>5808.8</v>
+      </c>
+      <c r="E54">
+        <v>3434.4</v>
+      </c>
+      <c r="F54">
+        <v>4422.3</v>
+      </c>
+      <c r="G54">
+        <v>13104.7</v>
+      </c>
+      <c r="H54">
+        <v>35248.699999999997</v>
+      </c>
+      <c r="I54">
+        <v>1119.3</v>
+      </c>
+      <c r="J54">
+        <v>4201.2</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>8916.6</v>
+      </c>
+      <c r="O54">
+        <v>17608</v>
+      </c>
+      <c r="P54">
+        <v>5213.8</v>
+      </c>
+      <c r="Q54">
+        <v>-538.70000000000005</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>37925</v>
+      </c>
+      <c r="T54">
+        <v>17640.7</v>
+      </c>
+      <c r="U54">
+        <v>3830.2</v>
+      </c>
+      <c r="V54">
+        <v>1726.8</v>
+      </c>
+      <c r="W54">
+        <v>-528.9</v>
+      </c>
+      <c r="X54">
+        <v>-1036.4000000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>-860.7</v>
+      </c>
+      <c r="AA54">
+        <v>727.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>727.9</v>
+      </c>
+      <c r="D55">
+        <v>4683.1000000000004</v>
+      </c>
+      <c r="E55">
+        <v>3002.9</v>
+      </c>
+      <c r="F55">
+        <v>3460.4</v>
+      </c>
+      <c r="G55">
+        <v>13039.3</v>
+      </c>
+      <c r="H55">
+        <v>34756.9</v>
+      </c>
+      <c r="I55">
+        <v>1149.9000000000001</v>
+      </c>
+      <c r="J55">
+        <v>5256.5</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1002</v>
+      </c>
+      <c r="N55">
+        <v>6631.7</v>
+      </c>
+      <c r="O55">
+        <v>16408.2</v>
+      </c>
+      <c r="P55">
+        <v>5265.6</v>
+      </c>
+      <c r="Q55">
+        <v>57.8</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>18348.7</v>
+      </c>
+      <c r="U55">
+        <v>3888</v>
+      </c>
+      <c r="V55">
+        <v>272.3</v>
+      </c>
+      <c r="W55">
+        <v>-524.1</v>
+      </c>
+      <c r="X55">
+        <v>-595.1</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>627.29999999999995</v>
+      </c>
+      <c r="AA55">
+        <v>727.9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>733.5</v>
+      </c>
+      <c r="D56">
+        <v>4935.6000000000004</v>
+      </c>
+      <c r="E56">
+        <v>3187.9</v>
+      </c>
+      <c r="F56">
+        <v>3745.9</v>
+      </c>
+      <c r="G56">
+        <v>13156.7</v>
+      </c>
+      <c r="H56">
+        <v>35018.400000000001</v>
+      </c>
+      <c r="I56">
+        <v>1124.5999999999999</v>
+      </c>
+      <c r="J56">
+        <v>5301.3</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>7417.4</v>
+      </c>
+      <c r="O56">
+        <v>17023.599999999999</v>
+      </c>
+      <c r="P56">
+        <v>5326.2</v>
+      </c>
+      <c r="Q56">
+        <v>-122.3</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>17994.8</v>
+      </c>
+      <c r="U56">
+        <v>3765.7</v>
+      </c>
+      <c r="V56">
+        <v>1053.9000000000001</v>
+      </c>
+      <c r="W56">
+        <v>-526.9</v>
+      </c>
+      <c r="X56">
+        <v>-702.5</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>403.3</v>
+      </c>
+      <c r="AA56">
+        <v>733.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>500.6</v>
+      </c>
+      <c r="D57">
+        <v>4875.6000000000004</v>
+      </c>
+      <c r="E57">
+        <v>3053.5</v>
+      </c>
+      <c r="F57">
+        <v>3608.6</v>
+      </c>
+      <c r="G57">
+        <v>12110.5</v>
+      </c>
+      <c r="H57">
+        <v>34648.800000000003</v>
+      </c>
+      <c r="I57">
+        <v>1023.3</v>
+      </c>
+      <c r="J57">
+        <v>5318.5</v>
+      </c>
+      <c r="K57">
+        <v>300</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>7574.6</v>
+      </c>
+      <c r="O57">
+        <v>16966.3</v>
+      </c>
+      <c r="P57">
+        <v>5668.2</v>
+      </c>
+      <c r="Q57">
+        <v>-599.9</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>17682.5</v>
+      </c>
+      <c r="U57">
+        <v>3165.8</v>
+      </c>
+      <c r="V57">
+        <v>1691.3</v>
+      </c>
+      <c r="W57">
+        <v>-525</v>
+      </c>
+      <c r="X57">
+        <v>-405.9</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-1052</v>
+      </c>
+      <c r="AA57">
+        <v>500.6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>428.5</v>
+      </c>
+      <c r="D58">
+        <v>5121.3</v>
+      </c>
+      <c r="E58">
+        <v>3234.6</v>
+      </c>
+      <c r="F58">
+        <v>3868.2</v>
+      </c>
+      <c r="G58">
+        <v>11928.3</v>
+      </c>
+      <c r="H58">
+        <v>36307.599999999999</v>
+      </c>
+      <c r="I58">
+        <v>1128.0999999999999</v>
+      </c>
+      <c r="J58">
+        <v>5333.5</v>
+      </c>
+      <c r="K58">
+        <v>2680.6</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>9741</v>
+      </c>
+      <c r="O58">
+        <v>20919.5</v>
+      </c>
+      <c r="P58">
+        <v>8171.7</v>
+      </c>
+      <c r="Q58">
+        <v>705.8</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>39135</v>
+      </c>
+      <c r="T58">
+        <v>15388.1</v>
+      </c>
+      <c r="U58">
+        <v>3871.6</v>
+      </c>
+      <c r="V58">
+        <v>1349.6</v>
+      </c>
+      <c r="W58">
+        <v>-525.20000000000005</v>
+      </c>
+      <c r="X58">
+        <v>1628.4</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>3644.4</v>
+      </c>
+      <c r="AA58">
+        <v>428.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>529.5</v>
+      </c>
+      <c r="D59">
+        <v>4644.7</v>
+      </c>
+      <c r="E59">
+        <v>3142.5</v>
+      </c>
+      <c r="F59">
+        <v>3515.5</v>
+      </c>
+      <c r="G59">
+        <v>11742.7</v>
+      </c>
+      <c r="H59">
+        <v>35653.9</v>
+      </c>
+      <c r="I59">
+        <v>1179.5999999999999</v>
+      </c>
+      <c r="J59">
+        <v>7415.3</v>
+      </c>
+      <c r="K59">
+        <v>590</v>
+      </c>
+      <c r="L59">
+        <v>-2088.6</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>8342.9</v>
+      </c>
+      <c r="O59">
+        <v>20707.400000000001</v>
+      </c>
+      <c r="P59">
+        <v>8220.7000000000007</v>
+      </c>
+      <c r="Q59">
+        <v>-806.8</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>14946.5</v>
+      </c>
+      <c r="U59">
+        <v>3064.8</v>
+      </c>
+      <c r="V59">
+        <v>-84.8</v>
+      </c>
+      <c r="W59">
+        <v>-527.9</v>
+      </c>
+      <c r="X59">
+        <v>-701.2</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>13.2</v>
+      </c>
+      <c r="AA59">
+        <v>529.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>600.79999999999995</v>
+      </c>
+      <c r="D60">
+        <v>4978.7</v>
+      </c>
+      <c r="E60">
+        <v>3348.8</v>
+      </c>
+      <c r="F60">
+        <v>3828.7</v>
+      </c>
+      <c r="G60">
+        <v>12346</v>
+      </c>
+      <c r="H60">
+        <v>36036.6</v>
+      </c>
+      <c r="I60">
+        <v>1153</v>
+      </c>
+      <c r="J60">
+        <v>7990.4</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>8232</v>
+      </c>
+      <c r="O60">
+        <v>21331.200000000001</v>
+      </c>
+      <c r="P60">
+        <v>8001.2</v>
+      </c>
+      <c r="Q60">
+        <v>250.7</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>14705.4</v>
+      </c>
+      <c r="U60">
+        <v>3315.5</v>
+      </c>
+      <c r="V60">
+        <v>948.6</v>
+      </c>
+      <c r="W60">
+        <v>-539.79999999999995</v>
+      </c>
+      <c r="X60">
+        <v>-943.2</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>601.29999999999995</v>
+      </c>
+      <c r="AA60">
+        <v>600.79999999999995</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>799.7</v>
+      </c>
+      <c r="D61">
+        <v>4959.7</v>
+      </c>
+      <c r="E61">
+        <v>3401.9</v>
+      </c>
+      <c r="F61">
+        <v>3744</v>
+      </c>
+      <c r="G61">
+        <v>12567</v>
+      </c>
+      <c r="H61">
+        <v>36304.699999999997</v>
+      </c>
+      <c r="I61">
+        <v>1179.3</v>
+      </c>
+      <c r="J61">
+        <v>8069.6</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>8303.2999999999993</v>
+      </c>
+      <c r="O61">
+        <v>21063.8</v>
+      </c>
+      <c r="P61">
+        <v>8078.9</v>
+      </c>
+      <c r="Q61">
+        <v>-76.7</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>15240.9</v>
+      </c>
+      <c r="U61">
+        <v>3238.8</v>
+      </c>
+      <c r="V61">
+        <v>1104.7</v>
+      </c>
+      <c r="W61">
+        <v>-526.29999999999995</v>
+      </c>
+      <c r="X61">
+        <v>-595.20000000000005</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-194.5</v>
+      </c>
+      <c r="AA61">
+        <v>799.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>478.4</v>
+      </c>
+      <c r="D62">
+        <v>5375.6</v>
+      </c>
+      <c r="E62">
+        <v>3513</v>
+      </c>
+      <c r="F62">
+        <v>3986.4</v>
+      </c>
+      <c r="G62">
+        <v>12573.6</v>
+      </c>
+      <c r="H62">
+        <v>35568.9</v>
+      </c>
+      <c r="I62">
+        <v>1338.2</v>
+      </c>
+      <c r="J62">
+        <v>7972.8</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>8229.6</v>
+      </c>
+      <c r="O62">
+        <v>20978.6</v>
+      </c>
+      <c r="P62">
+        <v>7978.9</v>
+      </c>
+      <c r="Q62">
+        <v>427.6</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>41275</v>
+      </c>
+      <c r="T62">
+        <v>14590.3</v>
+      </c>
+      <c r="U62">
+        <v>3666.4</v>
+      </c>
+      <c r="V62">
+        <v>996.1</v>
+      </c>
+      <c r="W62">
+        <v>-533.29999999999995</v>
+      </c>
+      <c r="X62">
+        <v>-871.4</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>741.5</v>
+      </c>
+      <c r="AA62">
+        <v>478.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>440.1</v>
+      </c>
+      <c r="D63">
+        <v>4865.1000000000004</v>
+      </c>
+      <c r="E63">
+        <v>3622.6</v>
+      </c>
+      <c r="F63">
+        <v>3542.1</v>
+      </c>
+      <c r="G63">
+        <v>11714.6</v>
+      </c>
+      <c r="H63">
+        <v>34691.800000000003</v>
+      </c>
+      <c r="I63">
+        <v>1151.5999999999999</v>
+      </c>
+      <c r="J63">
+        <v>7478.9</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>7340.9</v>
+      </c>
+      <c r="O63">
+        <v>19662.400000000001</v>
+      </c>
+      <c r="P63">
+        <v>8127.2</v>
+      </c>
+      <c r="Q63">
+        <v>-1358.8</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>15029.4</v>
+      </c>
+      <c r="U63">
+        <v>2307.6</v>
+      </c>
+      <c r="V63">
+        <v>-219.1</v>
+      </c>
+      <c r="W63">
+        <v>-538.29999999999995</v>
+      </c>
+      <c r="X63">
+        <v>-924.2</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>45.4</v>
+      </c>
+      <c r="AA63">
+        <v>440.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>747.7</v>
+      </c>
+      <c r="D64">
+        <v>5404.8</v>
+      </c>
+      <c r="E64">
+        <v>3947.9</v>
+      </c>
+      <c r="F64">
+        <v>3939.8</v>
+      </c>
+      <c r="G64">
+        <v>12977.3</v>
+      </c>
+      <c r="H64">
+        <v>36475.300000000003</v>
+      </c>
+      <c r="I64">
+        <v>1207.8</v>
+      </c>
+      <c r="J64">
+        <v>8685.5</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>8401</v>
+      </c>
+      <c r="O64">
+        <v>21819.1</v>
+      </c>
+      <c r="P64">
+        <v>9331.2999999999993</v>
+      </c>
+      <c r="Q64">
+        <v>930.4</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>14656.2</v>
+      </c>
+      <c r="U64">
+        <v>3238</v>
+      </c>
+      <c r="V64">
+        <v>1401.9</v>
+      </c>
+      <c r="W64">
+        <v>-541.20000000000005</v>
+      </c>
+      <c r="X64">
+        <v>579.29999999999995</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>-735.2</v>
+      </c>
+      <c r="AA64">
+        <v>747.7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>778</v>
+      </c>
+      <c r="D65">
+        <v>5191.7</v>
+      </c>
+      <c r="E65">
+        <v>3848.5</v>
+      </c>
+      <c r="F65">
+        <v>3790.8</v>
+      </c>
+      <c r="G65">
+        <v>13385.9</v>
+      </c>
+      <c r="H65">
+        <v>37590.300000000003</v>
+      </c>
+      <c r="I65">
+        <v>1161.2</v>
+      </c>
+      <c r="J65">
+        <v>8707.2999999999993</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>8272.7999999999993</v>
+      </c>
+      <c r="O65">
+        <v>21974.5</v>
+      </c>
+      <c r="P65">
+        <v>9348.7999999999993</v>
+      </c>
+      <c r="Q65">
+        <v>251</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>15615.8</v>
+      </c>
+      <c r="U65">
+        <v>3489</v>
+      </c>
+      <c r="V65">
+        <v>1661.7</v>
+      </c>
+      <c r="W65">
+        <v>-537.9</v>
+      </c>
+      <c r="X65">
+        <v>-600.1</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-523.9</v>
+      </c>
+      <c r="AA65">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>771.8</v>
+      </c>
+      <c r="D66">
+        <v>5760.5</v>
+      </c>
+      <c r="E66">
+        <v>4029.4</v>
+      </c>
+      <c r="F66">
+        <v>4294.5</v>
+      </c>
+      <c r="G66">
+        <v>15101.4</v>
+      </c>
+      <c r="H66">
+        <v>38805.9</v>
+      </c>
+      <c r="I66">
+        <v>1349.3</v>
+      </c>
+      <c r="J66">
+        <v>8368.2999999999993</v>
+      </c>
+      <c r="K66">
+        <v>1299.3</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>10986.6</v>
+      </c>
+      <c r="O66">
+        <v>24725.4</v>
+      </c>
+      <c r="P66">
+        <v>10305.700000000001</v>
+      </c>
+      <c r="Q66">
+        <v>1093.0999999999999</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>41975</v>
+      </c>
+      <c r="T66">
+        <v>14080.5</v>
+      </c>
+      <c r="U66">
+        <v>4582.1000000000004</v>
+      </c>
+      <c r="V66">
+        <v>2006.5</v>
+      </c>
+      <c r="W66">
+        <v>-541.1</v>
+      </c>
+      <c r="X66">
+        <v>385.2</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-731.7</v>
+      </c>
+      <c r="AA66">
+        <v>771.8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>-110.8</v>
+      </c>
+      <c r="D67">
+        <v>5228.3</v>
+      </c>
+      <c r="E67">
+        <v>4017.2</v>
+      </c>
+      <c r="F67">
+        <v>3880.4</v>
+      </c>
+      <c r="G67">
+        <v>12976.2</v>
+      </c>
+      <c r="H67">
+        <v>37624.300000000003</v>
+      </c>
+      <c r="I67">
+        <v>1220.0999999999999</v>
+      </c>
+      <c r="J67">
+        <v>7638.5</v>
+      </c>
+      <c r="K67">
+        <v>1799.7</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-630.20000000000005</v>
+      </c>
+      <c r="N67">
+        <v>10448</v>
+      </c>
+      <c r="O67">
+        <v>23520.6</v>
+      </c>
+      <c r="P67">
+        <v>10248.200000000001</v>
+      </c>
+      <c r="Q67">
+        <v>-1965.2</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>14103.7</v>
+      </c>
+      <c r="U67">
+        <v>2616.9</v>
+      </c>
+      <c r="V67">
+        <v>339.9</v>
+      </c>
+      <c r="W67">
+        <v>-547.4</v>
+      </c>
+      <c r="X67">
+        <v>-875.7</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>461.1</v>
+      </c>
+      <c r="AA67">
+        <v>-110.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>1008</v>
+      </c>
+      <c r="D68">
+        <v>5824.3</v>
+      </c>
+      <c r="E68">
+        <v>4349.8999999999996</v>
+      </c>
+      <c r="F68">
+        <v>4252.6000000000004</v>
+      </c>
+      <c r="G68">
+        <v>15746.5</v>
+      </c>
+      <c r="H68">
+        <v>40946.5</v>
+      </c>
+      <c r="I68">
+        <v>1257.2</v>
+      </c>
+      <c r="J68">
+        <v>9881.4</v>
+      </c>
+      <c r="K68">
+        <v>1425</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>11294.5</v>
+      </c>
+      <c r="O68">
+        <v>26776.799999999999</v>
+      </c>
+      <c r="P68">
+        <v>12341</v>
+      </c>
+      <c r="Q68">
+        <v>453</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>14169.7</v>
+      </c>
+      <c r="U68">
+        <v>3069.9</v>
+      </c>
+      <c r="V68">
+        <v>1651.1</v>
+      </c>
+      <c r="W68">
+        <v>-548.70000000000005</v>
+      </c>
+      <c r="X68">
+        <v>1059.9000000000001</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>-1918.2</v>
+      </c>
+      <c r="AA68">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>555.6</v>
+      </c>
+      <c r="D69">
+        <v>5658</v>
+      </c>
+      <c r="E69">
+        <v>4401.3</v>
+      </c>
+      <c r="F69">
+        <v>4071.7</v>
+      </c>
+      <c r="G69">
+        <v>17428.400000000001</v>
+      </c>
+      <c r="H69">
+        <v>43010.400000000001</v>
+      </c>
+      <c r="I69">
+        <v>1200.0999999999999</v>
+      </c>
+      <c r="J69">
+        <v>9948.9</v>
+      </c>
+      <c r="K69">
+        <v>2526</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>12666.5</v>
+      </c>
+      <c r="O69">
+        <v>28049.8</v>
+      </c>
+      <c r="P69">
+        <v>13530.8</v>
+      </c>
+      <c r="Q69">
+        <v>654.4</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>14960.6</v>
+      </c>
+      <c r="U69">
+        <v>3724.3</v>
+      </c>
+      <c r="V69">
+        <v>1881.1</v>
+      </c>
+      <c r="W69">
+        <v>-547.70000000000005</v>
+      </c>
+      <c r="X69">
+        <v>500.7</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-1249.2</v>
+      </c>
+      <c r="AA69">
+        <v>555.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-1656.9</v>
+      </c>
+      <c r="D70">
+        <v>6160.7</v>
+      </c>
+      <c r="E70">
+        <v>4546.3</v>
+      </c>
+      <c r="F70">
+        <v>4515.8</v>
+      </c>
+      <c r="G70">
+        <v>19202.099999999999</v>
+      </c>
+      <c r="H70">
+        <v>44981</v>
+      </c>
+      <c r="I70">
+        <v>1410.7</v>
+      </c>
+      <c r="J70">
+        <v>9977</v>
+      </c>
+      <c r="K70">
+        <v>2696.8</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>14535.9</v>
+      </c>
+      <c r="O70">
+        <v>33313.1</v>
+      </c>
+      <c r="P70">
+        <v>13717.2</v>
+      </c>
+      <c r="Q70">
+        <v>2811.9</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>40655</v>
+      </c>
+      <c r="T70">
+        <v>11667.9</v>
+      </c>
+      <c r="U70">
+        <v>6536.2</v>
+      </c>
+      <c r="V70">
+        <v>1743.5</v>
+      </c>
+      <c r="W70">
+        <v>-548.29999999999995</v>
+      </c>
+      <c r="X70">
+        <v>-542.29999999999995</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>2143.5</v>
+      </c>
+      <c r="AA70">
+        <v>-1656.9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>1217.4000000000001</v>
+      </c>
+      <c r="D71">
+        <v>4963.8</v>
+      </c>
+      <c r="E71">
+        <v>4495.1000000000004</v>
+      </c>
+      <c r="F71">
+        <v>3799.2</v>
+      </c>
+      <c r="G71">
+        <v>16261.5</v>
+      </c>
+      <c r="H71">
+        <v>44355.6</v>
+      </c>
+      <c r="I71">
+        <v>1267.4000000000001</v>
+      </c>
+      <c r="J71">
+        <v>9465.2999999999993</v>
+      </c>
+      <c r="K71">
+        <v>1494.3</v>
+      </c>
+      <c r="L71">
+        <v>-1202.5</v>
+      </c>
+      <c r="M71">
+        <v>-800.3</v>
+      </c>
+      <c r="N71">
+        <v>11547</v>
+      </c>
+      <c r="O71">
+        <v>29767.8</v>
+      </c>
+      <c r="P71">
+        <v>11812.8</v>
+      </c>
+      <c r="Q71">
+        <v>-3451.9</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>14587.8</v>
+      </c>
+      <c r="U71">
+        <v>3084.3</v>
+      </c>
+      <c r="V71">
+        <v>436.5</v>
+      </c>
+      <c r="W71">
+        <v>-587.29999999999995</v>
+      </c>
+      <c r="X71">
+        <v>-3866.5</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>87.4</v>
+      </c>
+      <c r="AA71">
+        <v>1217.4000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>-259.89999999999998</v>
+      </c>
+      <c r="D72">
+        <v>5585</v>
+      </c>
+      <c r="E72">
+        <v>4823</v>
+      </c>
+      <c r="F72">
+        <v>4350.7</v>
+      </c>
+      <c r="G72">
+        <v>18332.7</v>
+      </c>
+      <c r="H72">
+        <v>42359.199999999997</v>
+      </c>
+      <c r="I72">
+        <v>1316.9</v>
+      </c>
+      <c r="J72">
+        <v>9216</v>
+      </c>
+      <c r="K72">
+        <v>2448</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>13055.2</v>
+      </c>
+      <c r="O72">
+        <v>30738.400000000001</v>
+      </c>
+      <c r="P72">
+        <v>12289.8</v>
+      </c>
+      <c r="Q72">
+        <v>3733</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>11620.8</v>
+      </c>
+      <c r="U72">
+        <v>6817.3</v>
+      </c>
+      <c r="V72">
+        <v>1517.5</v>
+      </c>
+      <c r="W72">
+        <v>-579.29999999999995</v>
+      </c>
+      <c r="X72">
+        <v>-831.4</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>5015.7</v>
+      </c>
+      <c r="AA72">
+        <v>-259.89999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>1149.5</v>
+      </c>
+      <c r="D73">
+        <v>5306.9</v>
+      </c>
+      <c r="E73">
+        <v>4859.3999999999996</v>
+      </c>
+      <c r="F73">
+        <v>4154</v>
+      </c>
+      <c r="G73">
+        <v>20685.900000000001</v>
+      </c>
+      <c r="H73">
+        <v>44625.1</v>
+      </c>
+      <c r="I73">
+        <v>1281.2</v>
+      </c>
+      <c r="J73">
+        <v>11741.2</v>
+      </c>
+      <c r="K73">
+        <v>399.7</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>10826.7</v>
+      </c>
+      <c r="O73">
+        <v>30474.2</v>
+      </c>
+      <c r="P73">
+        <v>12762.7</v>
+      </c>
+      <c r="Q73">
+        <v>2142.6999999999998</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>14150.9</v>
+      </c>
+      <c r="U73">
+        <v>8960</v>
+      </c>
+      <c r="V73">
+        <v>2121.8000000000002</v>
+      </c>
+      <c r="W73">
+        <v>-572.6</v>
+      </c>
+      <c r="X73">
+        <v>432.7</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>45.2</v>
+      </c>
+      <c r="AA73">
+        <v>1149.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>1125</v>
+      </c>
+      <c r="D74">
+        <v>5637.6</v>
+      </c>
+      <c r="E74">
+        <v>4593.8999999999996</v>
+      </c>
+      <c r="F74">
+        <v>4507.7</v>
+      </c>
+      <c r="G74">
+        <v>20549.599999999999</v>
+      </c>
+      <c r="H74">
+        <v>43908.4</v>
+      </c>
+      <c r="I74">
+        <v>1207.0999999999999</v>
+      </c>
+      <c r="J74">
+        <v>9241.2000000000007</v>
+      </c>
+      <c r="K74">
+        <v>498.9</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>11888.1</v>
+      </c>
+      <c r="O74">
+        <v>32999.300000000003</v>
+      </c>
+      <c r="P74">
+        <v>10374.9</v>
+      </c>
+      <c r="Q74">
+        <v>-961.8</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>38680</v>
+      </c>
+      <c r="T74">
+        <v>10909.1</v>
+      </c>
+      <c r="U74">
+        <v>7320.7</v>
+      </c>
+      <c r="V74">
+        <v>1448.7</v>
+      </c>
+      <c r="W74">
+        <v>-572.6</v>
+      </c>
+      <c r="X74">
+        <v>-1639.7</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>-36.4</v>
+      </c>
+      <c r="AA74">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>4241.6000000000004</v>
+      </c>
+      <c r="D75">
+        <v>5092.2</v>
+      </c>
+      <c r="E75">
+        <v>4200.5</v>
+      </c>
+      <c r="F75">
+        <v>3953.5</v>
+      </c>
+      <c r="G75">
+        <v>12597.5</v>
+      </c>
+      <c r="H75">
+        <v>38006.800000000003</v>
+      </c>
+      <c r="I75">
+        <v>1168.0999999999999</v>
+      </c>
+      <c r="J75">
+        <v>13645.5</v>
+      </c>
+      <c r="K75">
+        <v>2349.6</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-600</v>
+      </c>
+      <c r="N75">
+        <v>11236.1</v>
+      </c>
+      <c r="O75">
+        <v>35441.800000000003</v>
+      </c>
+      <c r="P75">
+        <v>16627.599999999999</v>
+      </c>
+      <c r="Q75">
+        <v>-5961.8</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>2565</v>
+      </c>
+      <c r="U75">
+        <v>2036.4</v>
+      </c>
+      <c r="V75">
+        <v>311.3</v>
+      </c>
+      <c r="W75">
+        <v>-637.20000000000005</v>
+      </c>
+      <c r="X75">
+        <v>1367.8</v>
+      </c>
+      <c r="Y75">
+        <v>508.2</v>
+      </c>
+      <c r="Z75">
+        <v>25.2</v>
+      </c>
+      <c r="AA75">
+        <v>4241.6000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>1327.2</v>
+      </c>
+      <c r="D76">
+        <v>5636.7</v>
+      </c>
+      <c r="E76">
+        <v>4612.5</v>
+      </c>
+      <c r="F76">
+        <v>4511.8</v>
+      </c>
+      <c r="G76">
+        <v>13454.5</v>
+      </c>
+      <c r="H76">
+        <v>38666.400000000001</v>
+      </c>
+      <c r="I76">
+        <v>1198.9000000000001</v>
+      </c>
+      <c r="J76">
+        <v>13738.7</v>
+      </c>
+      <c r="K76">
+        <v>2058.3000000000002</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>11855.4</v>
+      </c>
+      <c r="O76">
+        <v>35809.1</v>
+      </c>
+      <c r="P76">
+        <v>16432.5</v>
+      </c>
+      <c r="Q76">
+        <v>253.8</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>2857.3</v>
+      </c>
+      <c r="U76">
+        <v>2290.1999999999998</v>
+      </c>
+      <c r="V76">
+        <v>1051.5</v>
+      </c>
+      <c r="W76">
+        <v>-598</v>
+      </c>
+      <c r="X76">
+        <v>-885.8</v>
+      </c>
+      <c r="Y76">
+        <v>503.3</v>
+      </c>
+      <c r="Z76">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="AA76">
+        <v>1327.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>1253.9000000000001</v>
+      </c>
+      <c r="D77">
+        <v>5476.6</v>
+      </c>
+      <c r="E77">
+        <v>4441.7</v>
+      </c>
+      <c r="F77">
+        <v>4301.6000000000004</v>
+      </c>
+      <c r="G77">
+        <v>12661.8</v>
+      </c>
+      <c r="H77">
+        <v>37893.1</v>
+      </c>
+      <c r="I77">
+        <v>1114.9000000000001</v>
+      </c>
+      <c r="J77">
+        <v>13744.7</v>
+      </c>
+      <c r="K77">
+        <v>1557.8</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>10828.6</v>
+      </c>
+      <c r="O77">
+        <v>34430.800000000003</v>
+      </c>
+      <c r="P77">
+        <v>15919.3</v>
+      </c>
+      <c r="Q77">
+        <v>-726.4</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>3462.3</v>
+      </c>
+      <c r="U77">
+        <v>1563.8</v>
+      </c>
+      <c r="V77">
+        <v>1510.1</v>
+      </c>
+      <c r="W77">
+        <v>-587.4</v>
+      </c>
+      <c r="X77">
+        <v>-1692.9</v>
+      </c>
+      <c r="Y77">
+        <v>485.2</v>
+      </c>
+      <c r="Z77">
+        <v>58.8</v>
+      </c>
+      <c r="AA77">
+        <v>1253.9000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>1495.7</v>
+      </c>
+      <c r="D78">
+        <v>6114</v>
+      </c>
+      <c r="E78">
+        <v>4547.3</v>
+      </c>
+      <c r="F78">
+        <v>4831.3999999999996</v>
+      </c>
+      <c r="G78">
+        <v>13709.6</v>
+      </c>
+      <c r="H78">
+        <v>39286.1</v>
+      </c>
+      <c r="I78">
+        <v>1405.3</v>
+      </c>
+      <c r="J78">
+        <v>13843.7</v>
+      </c>
+      <c r="K78">
+        <v>1494.2</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>11775.2</v>
+      </c>
+      <c r="O78">
+        <v>36587</v>
+      </c>
+      <c r="P78">
+        <v>15364.4</v>
+      </c>
+      <c r="Q78">
+        <v>773.7</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>33625</v>
+      </c>
+      <c r="T78">
+        <v>2699.1</v>
+      </c>
+      <c r="U78">
+        <v>2337.5</v>
+      </c>
+      <c r="V78">
+        <v>1963.7</v>
+      </c>
+      <c r="W78">
+        <v>-587.20000000000005</v>
+      </c>
+      <c r="X78">
+        <v>-1113.5999999999999</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>72.3</v>
+      </c>
+      <c r="AA78">
+        <v>1495.7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>1456.5</v>
+      </c>
+      <c r="D79">
+        <v>5859.8</v>
+      </c>
+      <c r="E79">
+        <v>5106.1000000000004</v>
+      </c>
+      <c r="F79">
+        <v>4644.7</v>
+      </c>
+      <c r="G79">
+        <v>13994.2</v>
+      </c>
+      <c r="H79">
+        <v>41102.800000000003</v>
+      </c>
+      <c r="I79">
+        <v>1207.7</v>
+      </c>
+      <c r="J79">
+        <v>14383.4</v>
+      </c>
+      <c r="K79">
+        <v>3243.1</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-276.3</v>
+      </c>
+      <c r="N79">
+        <v>12610.2</v>
+      </c>
+      <c r="O79">
+        <v>37905.599999999999</v>
+      </c>
+      <c r="P79">
+        <v>17633.2</v>
+      </c>
+      <c r="Q79">
+        <v>-638.5</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>3197.2</v>
+      </c>
+      <c r="U79">
+        <v>1699</v>
+      </c>
+      <c r="V79">
+        <v>382.4</v>
+      </c>
+      <c r="W79">
+        <v>-671.3</v>
+      </c>
+      <c r="X79">
+        <v>106.7</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="AA79">
+        <v>1456.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>1412</v>
+      </c>
+      <c r="D80">
+        <v>5499.4</v>
+      </c>
+      <c r="E80">
+        <v>4828.8999999999996</v>
+      </c>
+      <c r="F80">
+        <v>4277.3999999999996</v>
+      </c>
+      <c r="G80">
+        <v>14581.9</v>
+      </c>
+      <c r="H80">
+        <v>41967</v>
+      </c>
+      <c r="I80">
+        <v>1247.2</v>
+      </c>
+      <c r="J80">
+        <v>15418.6</v>
+      </c>
+      <c r="K80">
+        <v>1258.8</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>11988.5</v>
+      </c>
+      <c r="O80">
+        <v>37695</v>
+      </c>
+      <c r="P80">
+        <v>16689.5</v>
+      </c>
+      <c r="Q80">
+        <v>666.1</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>4272</v>
+      </c>
+      <c r="U80">
+        <v>2365.1</v>
+      </c>
+      <c r="V80">
+        <v>2495.4</v>
+      </c>
+      <c r="W80">
+        <v>-674.2</v>
+      </c>
+      <c r="X80">
+        <v>-1673.2</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>360.1</v>
+      </c>
+      <c r="AA80">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>1208.4000000000001</v>
+      </c>
+      <c r="D81">
+        <v>5740.6</v>
+      </c>
+      <c r="E81">
+        <v>4886.7</v>
+      </c>
+      <c r="F81">
+        <v>4414.2</v>
+      </c>
+      <c r="G81">
+        <v>16239.9</v>
+      </c>
+      <c r="H81">
+        <v>43946</v>
+      </c>
+      <c r="I81">
+        <v>1430.1</v>
+      </c>
+      <c r="J81">
+        <v>16606.400000000001</v>
+      </c>
+      <c r="K81">
+        <v>579.9</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>11976.9</v>
+      </c>
+      <c r="O81">
+        <v>38950</v>
+      </c>
+      <c r="P81">
+        <v>17224.2</v>
+      </c>
+      <c r="Q81">
+        <v>1230.2</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>4996</v>
+      </c>
+      <c r="U81">
+        <v>3595.3</v>
+      </c>
+      <c r="V81">
+        <v>1806.6</v>
+      </c>
+      <c r="W81">
+        <v>-671.6</v>
+      </c>
+      <c r="X81">
+        <v>-279.10000000000002</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>89.4</v>
+      </c>
+      <c r="AA81">
+        <v>1208.4000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>2116.8000000000002</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>7440</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>5875.3</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>5720.2</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>17462.099999999999</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>46633.1</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>1606.7</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>16784.5</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>12481.6</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>40807.9</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>17549.5</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>61.8</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>35000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>5825.2</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>3657.1</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1815.2</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-670</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-1291.5</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>512.79999999999995</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>58.9</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>2116.8000000000002</v>
       </c>
     </row>
